--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA93921-5381-4575-94A6-50AE0CD406E4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF04C-FDF0-4DB4-B047-A0BAE639F2C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="2070" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1087,9 +1087,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>EirGrid.ElmNet</t>
-  </si>
-  <si>
     <t>220 kV A1</t>
   </si>
   <si>
@@ -1224,6 +1221,9 @@
   </si>
   <si>
     <t>Export_to_Excel</t>
+  </si>
+  <si>
+    <t>NSW.ElmNet</t>
   </si>
 </sst>
 </file>
@@ -1593,6 +1593,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1617,7 +1618,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2011,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4">
         <v>43954</v>
@@ -2085,7 +2085,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2102,14 +2102,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
-        <v>257</v>
+      <c r="A2" s="40" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -2118,32 +2118,32 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>219</v>
@@ -2173,13 +2173,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="22" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
   <mergeCells count="1">
     <mergeCell ref="D3:F3"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
@@ -2260,16 +2260,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>242</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2409,51 +2409,51 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="41" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="41" t="s">
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="41" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="41" t="s">
+      <c r="L3" s="43"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="42"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="41" t="s">
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="42"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="41" t="s">
+      <c r="R3" s="43"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="42"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="41" t="s">
+      <c r="U3" s="43"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="41" t="s">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="44"/>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2543,7 +2543,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -6046,18 +6046,18 @@
         <v>20</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -6065,13 +6065,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -6697,17 +6697,17 @@
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>18</v>
@@ -6716,31 +6716,31 @@
         <v>20</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="36" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="G4" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="36" t="s">
+      <c r="I4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="J4" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="36" t="s">
         <v>233</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8175,16 +8175,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" t="s">
         <v>250</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>251</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>252</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8194,7 +8194,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>136</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -8208,7 +8208,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
@@ -8220,7 +8220,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="12" t="s">
         <v>91</v>
       </c>
@@ -8232,19 +8232,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" t="s">
         <v>248</v>
-      </c>
-      <c r="C8" t="s">
-        <v>249</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
@@ -8256,7 +8256,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="12" t="s">
         <v>84</v>
       </c>
@@ -8268,7 +8268,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="12" t="s">
         <v>92</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="12" t="s">
         <v>85</v>
       </c>
@@ -8292,7 +8292,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="12" t="s">
         <v>86</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="12" t="s">
         <v>88</v>
       </c>
@@ -8328,7 +8328,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="48" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -8342,7 +8342,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="12" t="s">
         <v>93</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12" t="s">
         <v>94</v>
       </c>
@@ -8366,19 +8366,19 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="12" t="s">
         <v>95</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>138</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -8404,7 +8404,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="12" t="s">
         <v>97</v>
       </c>
@@ -8416,7 +8416,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="12" t="s">
         <v>98</v>
       </c>
@@ -8428,7 +8428,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="12" t="s">
         <v>99</v>
       </c>
@@ -8440,7 +8440,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="12" t="s">
         <v>100</v>
       </c>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="12" t="s">
         <v>101</v>
       </c>
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="12" t="s">
         <v>102</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="12" t="s">
         <v>103</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="12" t="s">
         <v>104</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="12" t="s">
         <v>105</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="12" t="s">
         <v>106</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="48" t="s">
         <v>139</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -8538,7 +8538,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="12" t="s">
         <v>108</v>
       </c>
@@ -8550,7 +8550,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="12" t="s">
         <v>109</v>
       </c>
@@ -8562,7 +8562,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="12" t="s">
         <v>110</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="12" t="s">
         <v>111</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="12" t="s">
         <v>112</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="12" t="s">
         <v>113</v>
       </c>
@@ -8610,7 +8610,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="12" t="s">
         <v>114</v>
       </c>
@@ -8622,7 +8622,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>140</v>
       </c>
       <c r="B40" s="12" t="s">
@@ -8636,7 +8636,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="12" t="s">
         <v>116</v>
       </c>
@@ -8648,7 +8648,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="12" t="s">
         <v>117</v>
       </c>
@@ -8660,7 +8660,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="12" t="s">
         <v>118</v>
       </c>
@@ -8672,7 +8672,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="12" t="s">
         <v>119</v>
       </c>
@@ -8684,7 +8684,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="12" t="s">
         <v>120</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="12" t="s">
         <v>121</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="16" t="s">
         <v>122</v>
       </c>
@@ -8720,7 +8720,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="12" t="s">
         <v>123</v>
       </c>
@@ -8732,7 +8732,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="16" t="s">
         <v>124</v>
       </c>
@@ -8744,7 +8744,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="48" t="s">
         <v>141</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="12" t="s">
         <v>126</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="12" t="s">
         <v>127</v>
       </c>
@@ -8782,7 +8782,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="48" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="12" t="s">
@@ -8796,7 +8796,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="12" t="s">
         <v>129</v>
       </c>
@@ -8808,7 +8808,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="12" t="s">
         <v>130</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="12" t="s">
         <v>131</v>
       </c>
@@ -8832,7 +8832,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="12" t="s">
         <v>132</v>
       </c>
@@ -8844,7 +8844,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="12" t="s">
         <v>133</v>
       </c>
@@ -8856,7 +8856,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="47" t="s">
+      <c r="A59" s="48" t="s">
         <v>143</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -8870,7 +8870,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="12" t="s">
         <v>135</v>
       </c>
@@ -8951,7 +8951,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>146</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -8965,7 +8965,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="12" t="s">
         <v>183</v>
       </c>
@@ -8977,7 +8977,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="12" t="s">
         <v>184</v>
       </c>
@@ -8989,7 +8989,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="12" t="s">
         <v>185</v>
       </c>
@@ -9001,7 +9001,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="12" t="s">
         <v>186</v>
       </c>
@@ -9014,7 +9014,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="12" t="s">
         <v>187</v>
       </c>
@@ -9026,7 +9026,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="12" t="s">
         <v>188</v>
       </c>
@@ -9038,7 +9038,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="12" t="s">
         <v>182</v>
       </c>
@@ -9051,7 +9051,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="12" t="s">
         <v>189</v>
       </c>
@@ -9064,7 +9064,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="12" t="s">
         <v>190</v>
       </c>
@@ -9077,7 +9077,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="16" t="s">
         <v>191</v>
       </c>
@@ -9089,7 +9089,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="16" t="s">
         <v>192</v>
       </c>
@@ -9101,7 +9101,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="48" t="s">
         <v>147</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -9115,7 +9115,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12" t="s">
         <v>194</v>
       </c>
@@ -9127,7 +9127,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="12" t="s">
         <v>195</v>
       </c>
@@ -9139,7 +9139,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="12" t="s">
         <v>196</v>
       </c>
@@ -9184,12 +9184,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="12" t="s">
         <v>218</v>
       </c>
@@ -9201,7 +9201,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="12" t="s">
         <v>197</v>
       </c>
@@ -9213,7 +9213,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="12" t="s">
         <v>198</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="12" t="s">
         <v>199</v>
       </c>
@@ -9237,7 +9237,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="12" t="s">
         <v>182</v>
       </c>
@@ -9249,7 +9249,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="12" t="s">
         <v>189</v>
       </c>
@@ -9261,7 +9261,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="12" t="s">
         <v>190</v>
       </c>
@@ -9274,7 +9274,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="16" t="s">
         <v>191</v>
       </c>
@@ -9286,7 +9286,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="16" t="s">
         <v>192</v>
       </c>
@@ -9312,7 +9312,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="48" t="s">
         <v>180</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -9326,7 +9326,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="12" t="s">
         <v>202</v>
       </c>
@@ -9338,7 +9338,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="12" t="s">
         <v>203</v>
       </c>
@@ -9350,7 +9350,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="12" t="s">
         <v>196</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="12" t="s">
         <v>204</v>
       </c>
@@ -9388,26 +9388,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9559,31 +9539,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9599,4 +9575,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF04C-FDF0-4DB4-B047-A0BAE639F2C1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FE37A8-7D67-47B2-9867-1D6B26B0A89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -2084,7 +2084,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2223,8 +2223,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,10 +2273,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
+      <c r="A6" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -9388,6 +9396,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9539,27 +9567,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9575,28 +9607,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FE37A8-7D67-47B2-9867-1D6B26B0A89C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B599E7A-6A43-4D91-91FA-34518B60499F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
   <si>
     <t>Name</t>
   </si>
@@ -2223,7 +2223,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2394,8 +2394,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2584,8 +2584,12 @@
       <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -8156,7 +8160,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9396,26 +9400,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9567,31 +9551,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9607,4 +9587,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B599E7A-6A43-4D91-91FA-34518B60499F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251A8BC9-0CF5-4A85-B965-21B5DF0620B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="3015" windowWidth="21585" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30120" yWindow="2610" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1157,15 +1157,6 @@
     <t>BASE</t>
   </si>
   <si>
-    <t>AIM 2019-MODEL-RELEASE v1.0(JI7867)</t>
-  </si>
-  <si>
-    <t>CP966</t>
-  </si>
-  <si>
-    <t>SV-HW</t>
-  </si>
-  <si>
     <t>EirGrid\Turlough Hill\220 kV T2001/2 TCB</t>
   </si>
   <si>
@@ -1224,6 +1215,15 @@
   </si>
   <si>
     <t>NSW.ElmNet</t>
+  </si>
+  <si>
+    <t>High Load Case</t>
+  </si>
+  <si>
+    <t>HighLoadTap_testing</t>
+  </si>
+  <si>
+    <t>pscharmonics_test_model</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +2021,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2118,32 +2118,32 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>236</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>219</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B10" s="22" t="b">
         <v>1</v>
@@ -2223,7 +2223,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2263,13 +2263,13 @@
         <v>239</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2277,13 +2277,13 @@
         <v>239</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -6063,10 +6063,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>221</v>
@@ -6077,10 +6077,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>221</v>
@@ -8187,16 +8187,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>252</v>
-      </c>
       <c r="C4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8246,10 +8246,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="48"/>
       <c r="B8" s="12" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8380,13 +8380,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="48"/>
       <c r="B19" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9400,6 +9400,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9551,27 +9571,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9587,28 +9611,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251A8BC9-0CF5-4A85-B965-21B5DF0620B9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA67C7-2DEA-4553-A488-A4D32CA48F46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30120" yWindow="2610" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -13,14 +13,11 @@
     <sheet name="Base_Scenarios" sheetId="13" r:id="rId3"/>
     <sheet name="Contingencies" sheetId="11" r:id="rId4"/>
     <sheet name="Terminals" sheetId="12" r:id="rId5"/>
-    <sheet name="Filters" sheetId="18" r:id="rId6"/>
-    <sheet name="Loadflow_Settings" sheetId="14" r:id="rId7"/>
-    <sheet name="Frequency_Sweep" sheetId="15" r:id="rId8"/>
-    <sheet name="Harmonic_Loadflow" sheetId="16" r:id="rId9"/>
+    <sheet name="Loadflow_Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Frequency_Sweep" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contingencies!$A$4:$AB$165</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Filters!$A$4:$E$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Terminals!$A$4:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -259,140 +256,6 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{7030842D-A06F-48B4-99F8-959A7217EF3A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Name of the station 
-Must be unique in the column</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{51937B5E-9610-4BBB-9577-4B8C28C9B761}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Name of the station 
-Example: Cauteen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{3CC9A92B-43A7-45D1-81A6-D65CAEF0EE6A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Name of the terminal in the station (.ElmTerm)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{6366EC8E-214F-46AD-A0E2-65EC5CCD1359}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Name of the terminal in the station (.ElmTerm)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{1D0F20B2-62DA-4838-A671-7CEE65F70F00}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-If set to TRUE then mutual impedance will be calculated from this node to other nodes.  Helps to improve study speed by setting to False</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
     <comment ref="D4" authorId="0" shapeId="0" xr:uid="{9F1654DB-B47D-4018-9D12-CF3B3E844655}">
       <text>
         <r>
@@ -421,8 +284,42 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{FE912968-6574-4D00-855B-754D21A0D9B6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Either enter the name of the Frequency Sweep command in the study case (typically "Frequency Sweep.ComFsweep") to use or set to False and populate the settings below.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="215">
   <si>
     <t>Name</t>
   </si>
@@ -691,9 +588,6 @@
     <t>Scaling Factor for Night Storage Heaters</t>
   </si>
   <si>
-    <t xml:space="preserve">	</t>
-  </si>
-  <si>
     <t>Active Power Control (0 as Dispatched, 1 According to Secondary Control,  2 Acording to Primary Control, 3 Acording to Inertias)</t>
   </si>
   <si>
@@ -868,12 +762,6 @@
     <t xml:space="preserve"> Advanced</t>
   </si>
   <si>
-    <t xml:space="preserve">	nomfreq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	maxfrq </t>
-  </si>
-  <si>
     <t xml:space="preserve">	frq.iopt_net </t>
   </si>
   <si>
@@ -889,21 +777,6 @@
     <t xml:space="preserve">	frq.i_adapt </t>
   </si>
   <si>
-    <t xml:space="preserve">	frq.frnom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	frq.fshow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	frq.ifshow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	frq.p_resvar </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> results          </t>
-  </si>
-  <si>
     <t xml:space="preserve">	frq.errmax </t>
   </si>
   <si>
@@ -916,66 +789,9 @@
     <t xml:space="preserve">	frq.ioutall </t>
   </si>
   <si>
-    <t xml:space="preserve">frq.cbutldf       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_net </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_allfrq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_flicker </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_SkV </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.frnom </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.fshow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.ifshow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	#hldf.p_resvar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	#hldf.cbutldf </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hdlf.iopt_harmsrc </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_thd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.maxHrmOrder </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.iopt_HF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.ioutall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">	hldf.expQ </t>
-  </si>
-  <si>
-    <t>Advanced Options</t>
-  </si>
-  <si>
-    <t>IEC 61000-3-6</t>
-  </si>
-  <si>
     <t>Nominal Frequency</t>
   </si>
   <si>
-    <t>Maximum Frequency</t>
-  </si>
-  <si>
     <t>Network Representation (0=Balanced 1=Unbalanced)</t>
   </si>
   <si>
@@ -991,18 +807,6 @@
     <t>Automatic Step Size Adaption</t>
   </si>
   <si>
-    <t>Output Frequency</t>
-  </si>
-  <si>
-    <t>Harmonic Order</t>
-  </si>
-  <si>
-    <t>Results Variable</t>
-  </si>
-  <si>
-    <t>Load flow</t>
-  </si>
-  <si>
     <t>Setting for Step Size Adaption    Maximum Prediction Error</t>
   </si>
   <si>
@@ -1015,39 +819,12 @@
     <t>Calculate R, X at output frequency for all nodes</t>
   </si>
   <si>
-    <t>Calculate Harmonic Load Flow 0 - Single Frequency 1 - All Frequencies</t>
-  </si>
-  <si>
-    <t>Calculate Flicker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calculate Sk at Fundamental Frequency		</t>
-  </si>
-  <si>
-    <t>Treatment of Harmonic Sources</t>
-  </si>
-  <si>
-    <t>Calculate HD and THD 0 Based on Fundamental Frequency values 1 Based on rated voltage/current</t>
-  </si>
-  <si>
-    <t>Max Harmonic order for calculation of THD and THF</t>
-  </si>
-  <si>
-    <t>Calculate Harmonic Factor ( HF)</t>
-  </si>
-  <si>
-    <t>Calculation of Factor-K (BS 7821) for Transformers</t>
-  </si>
-  <si>
     <t>cmd</t>
   </si>
   <si>
     <t>ldf</t>
   </si>
   <si>
-    <t>harm</t>
-  </si>
-  <si>
     <t>Recommended Settings</t>
   </si>
   <si>
@@ -1078,9 +855,6 @@
     <t>Calculation method (0 Balanced AC, 1 Unbalanced AC, 2 DC)</t>
   </si>
   <si>
-    <t>Calculation method (0 Balanced AC, 1 Unbalanced AC)</t>
-  </si>
-  <si>
     <t>The name of the network elements in PowerFactory. Note this is Case sensitive.</t>
   </si>
   <si>
@@ -1099,61 +873,12 @@
     <t>David Mills (PSC)</t>
   </si>
   <si>
-    <t>Filters to Include</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Only a single filter will be included at a time</t>
-  </si>
-  <si>
-    <t>Reactive Power Start</t>
-  </si>
-  <si>
-    <t>Reactive Power End</t>
-  </si>
-  <si>
-    <t>Resonant Frequency Start</t>
-  </si>
-  <si>
-    <t>Resonant Frequency Stop</t>
-  </si>
-  <si>
-    <t>Quality Factor</t>
-  </si>
-  <si>
-    <t>Parallel Resistance (Ohms)</t>
-  </si>
-  <si>
-    <t>Number of Steps</t>
-  </si>
-  <si>
-    <t>Filter Name</t>
-  </si>
-  <si>
     <t>D:\Users\david\Desktop\</t>
   </si>
   <si>
     <t>True = Export the results to Excel (Can be done later)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Harmonic Loadflow Settings </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(This sheet is no longer used)</t>
-    </r>
-  </si>
-  <si>
     <t>BASE</t>
   </si>
   <si>
@@ -1224,13 +949,28 @@
   </si>
   <si>
     <t>pscharmonics_test_model</t>
+  </si>
+  <si>
+    <t>Study Case Frequency Sweep</t>
+  </si>
+  <si>
+    <t>Name of frequency scan settings to be used for studycase (leave empty to use settings below)</t>
+  </si>
+  <si>
+    <t>frq.fnom</t>
+  </si>
+  <si>
+    <t>ComFsweep</t>
+  </si>
+  <si>
+    <t>Frequency Sweep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1305,14 +1045,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1526,7 +1258,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1546,13 +1278,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1567,7 +1295,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1586,14 +1313,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1624,7 +1350,24 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2011,7 +1754,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2021,7 +1764,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>251</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,8 +1785,8 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>224</v>
+      <c r="B7" s="32" t="s">
+        <v>183</v>
       </c>
       <c r="C7" s="4">
         <v>43954</v>
@@ -2060,15 +1803,15 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -2102,106 +1845,106 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
-        <v>253</v>
+      <c r="A2" s="36" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>252</v>
+      <c r="A5" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="25" t="s">
-        <v>254</v>
+      <c r="C6" s="22" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>219</v>
+      <c r="A7" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B8" s="22" t="b">
+      <c r="A8" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>213</v>
+      <c r="C8" s="19" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="B9" s="22" t="b">
+      <c r="A9" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>214</v>
+      <c r="C9" s="19" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="22" t="b">
+      <c r="A10" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>237</v>
+      <c r="C10" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="22" t="b">
+        <v>171</v>
+      </c>
+      <c r="B11" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>215</v>
+      <c r="C11" s="19" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="B12" s="22" t="b">
+      <c r="A12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="20" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>216</v>
+      <c r="C12" s="19" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +1966,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2241,144 +1984,144 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="18"/>
+      <c r="A2" s="16"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="30" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>261</v>
+        <v>186</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>261</v>
+        <v>186</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="34"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="34"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="34"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="34"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="34"/>
+      <c r="B14" s="31"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="34"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="34"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="34"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="34"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="34"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="34"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="34"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -2417,51 +2160,51 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="42" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="42" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="42" t="s">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="42" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="42" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="42" t="s">
+      <c r="R3" s="39"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="42" t="s">
+      <c r="U3" s="39"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="42" t="s">
+      <c r="X3" s="39"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="44"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2474,7 +2217,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>18</v>
@@ -2483,7 +2226,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>18</v>
@@ -2492,7 +2235,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>18</v>
@@ -2501,7 +2244,7 @@
         <v>19</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>18</v>
@@ -2510,7 +2253,7 @@
         <v>19</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="11" t="s">
         <v>18</v>
@@ -2519,7 +2262,7 @@
         <v>19</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>18</v>
@@ -2528,7 +2271,7 @@
         <v>19</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="W4" s="11" t="s">
         <v>18</v>
@@ -2537,7 +2280,7 @@
         <v>19</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="Z4" s="11" t="s">
         <v>18</v>
@@ -2546,12 +2289,12 @@
         <v>19</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -2585,7 +2328,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2595,11 +2338,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2625,11 +2368,11 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2655,11 +2398,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2685,11 +2428,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2715,11 +2458,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2745,11 +2488,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2775,11 +2518,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2805,11 +2548,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2835,11 +2578,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2865,11 +2608,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2895,11 +2638,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2925,11 +2668,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2955,11 +2698,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2985,11 +2728,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -3015,11 +2758,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -3045,11 +2788,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -3075,11 +2818,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3105,11 +2848,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3135,11 +2878,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3165,11 +2908,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3195,11 +2938,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -3225,11 +2968,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -3255,11 +2998,11 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3285,11 +3028,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3315,11 +3058,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3345,11 +3088,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3375,11 +3118,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3405,11 +3148,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3435,11 +3178,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="25"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3465,11 +3208,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="25"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3495,11 +3238,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3525,11 +3268,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3555,11 +3298,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3585,11 +3328,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3615,11 +3358,11 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3645,11 +3388,11 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3675,11 +3418,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3705,11 +3448,11 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="25"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3735,11 +3478,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3765,11 +3508,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="25"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3795,11 +3538,11 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3825,11 +3568,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3855,11 +3598,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3885,11 +3628,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3915,11 +3658,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3945,11 +3688,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3975,11 +3718,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -4005,11 +3748,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -4035,11 +3778,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -4065,11 +3808,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -4095,11 +3838,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4125,11 +3868,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4155,11 +3898,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
-      <c r="K58" s="28"/>
-      <c r="L58" s="28"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4185,11 +3928,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4215,11 +3958,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4245,11 +3988,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4275,11 +4018,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4305,11 +4048,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -4335,11 +4078,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -4365,11 +4108,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="29"/>
-      <c r="J65" s="29"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -4395,11 +4138,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="28"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -4425,11 +4168,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="28"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -4455,11 +4198,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -4485,11 +4228,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4515,11 +4258,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="28"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4545,11 +4288,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="28"/>
-      <c r="K71" s="28"/>
-      <c r="L71" s="28"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4575,11 +4318,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4605,11 +4348,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
-      <c r="K73" s="28"/>
-      <c r="L73" s="28"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4635,11 +4378,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
-      <c r="K74" s="28"/>
-      <c r="L74" s="28"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4665,11 +4408,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
-      <c r="K75" s="28"/>
-      <c r="L75" s="28"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -4695,11 +4438,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="28"/>
-      <c r="L76" s="28"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="25"/>
+      <c r="L76" s="25"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -4725,11 +4468,11 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -4755,11 +4498,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="28"/>
-      <c r="L78" s="28"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="25"/>
+      <c r="L78" s="25"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -4785,11 +4528,11 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="28"/>
-      <c r="L79" s="28"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -4799,11 +4542,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
+      <c r="K80" s="25"/>
+      <c r="L80" s="25"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
@@ -4813,11 +4556,11 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
@@ -4827,11 +4570,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
+      <c r="K82" s="25"/>
+      <c r="L82" s="25"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -4841,11 +4584,11 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="25"/>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -4855,11 +4598,11 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
@@ -4869,11 +4612,11 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="28"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
@@ -4883,11 +4626,11 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
@@ -4897,11 +4640,11 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
@@ -4911,11 +4654,11 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="28"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
@@ -4925,11 +4668,11 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="28"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="28"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -4939,11 +4682,11 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
+      <c r="K90" s="25"/>
+      <c r="L90" s="25"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -4953,11 +4696,11 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
@@ -4967,11 +4710,11 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
-      <c r="K92" s="28"/>
-      <c r="L92" s="28"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -4981,11 +4724,11 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
-      <c r="K93" s="28"/>
-      <c r="L93" s="28"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
@@ -4995,11 +4738,11 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
-      <c r="K94" s="28"/>
-      <c r="L94" s="28"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
+      <c r="K94" s="25"/>
+      <c r="L94" s="25"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -5009,11 +4752,11 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
+      <c r="K95" s="25"/>
+      <c r="L95" s="25"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
@@ -5023,11 +4766,11 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
@@ -5037,11 +4780,11 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
-      <c r="K97" s="28"/>
-      <c r="L97" s="28"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
+      <c r="K97" s="25"/>
+      <c r="L97" s="25"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -5051,11 +4794,11 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="28"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
+      <c r="K98" s="25"/>
+      <c r="L98" s="25"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
@@ -5065,11 +4808,11 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
@@ -5079,11 +4822,11 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
-      <c r="K100" s="28"/>
-      <c r="L100" s="28"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
+      <c r="K100" s="25"/>
+      <c r="L100" s="25"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
@@ -5093,11 +4836,11 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
-      <c r="K101" s="28"/>
-      <c r="L101" s="28"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
@@ -5107,11 +4850,11 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
-      <c r="K102" s="28"/>
-      <c r="L102" s="28"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
@@ -5121,11 +4864,11 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
-      <c r="K103" s="28"/>
-      <c r="L103" s="28"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
@@ -5135,11 +4878,11 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
-      <c r="K104" s="28"/>
-      <c r="L104" s="28"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
@@ -5149,11 +4892,11 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
-      <c r="K105" s="28"/>
-      <c r="L105" s="28"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
+      <c r="K105" s="25"/>
+      <c r="L105" s="25"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
@@ -5163,11 +4906,11 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
-      <c r="K106" s="28"/>
-      <c r="L106" s="28"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
@@ -5177,11 +4920,11 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
-      <c r="K107" s="28"/>
-      <c r="L107" s="28"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -5191,11 +4934,11 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
-      <c r="K108" s="28"/>
-      <c r="L108" s="28"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
+      <c r="K108" s="25"/>
+      <c r="L108" s="25"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
@@ -5205,11 +4948,11 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
-      <c r="K109" s="28"/>
-      <c r="L109" s="28"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
+      <c r="K109" s="25"/>
+      <c r="L109" s="25"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
@@ -5219,11 +4962,11 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
-      <c r="K110" s="28"/>
-      <c r="L110" s="28"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
+      <c r="K110" s="25"/>
+      <c r="L110" s="25"/>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
@@ -5233,11 +4976,11 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
-      <c r="K111" s="28"/>
-      <c r="L111" s="28"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -5247,11 +4990,11 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
-      <c r="K112" s="28"/>
-      <c r="L112" s="28"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
@@ -5261,11 +5004,11 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="28"/>
-      <c r="L113" s="28"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
@@ -5275,11 +5018,11 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="28"/>
-      <c r="L114" s="28"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
@@ -5289,11 +5032,11 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="28"/>
-      <c r="L115" s="28"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
@@ -5303,11 +5046,11 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
-      <c r="K116" s="28"/>
-      <c r="L116" s="28"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
+      <c r="K116" s="25"/>
+      <c r="L116" s="25"/>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
@@ -5317,11 +5060,11 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="28"/>
-      <c r="I117" s="28"/>
-      <c r="J117" s="28"/>
-      <c r="K117" s="28"/>
-      <c r="L117" s="28"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -5331,11 +5074,11 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
-      <c r="K118" s="28"/>
-      <c r="L118" s="28"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
+      <c r="K118" s="25"/>
+      <c r="L118" s="25"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
@@ -5345,11 +5088,11 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
-      <c r="K119" s="28"/>
-      <c r="L119" s="28"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
@@ -5359,11 +5102,11 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
-      <c r="K120" s="28"/>
-      <c r="L120" s="28"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="25"/>
+      <c r="K120" s="25"/>
+      <c r="L120" s="25"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
@@ -5373,11 +5116,11 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
-      <c r="K121" s="28"/>
-      <c r="L121" s="28"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="25"/>
+      <c r="K121" s="25"/>
+      <c r="L121" s="25"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -5387,11 +5130,11 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
-      <c r="K122" s="28"/>
-      <c r="L122" s="28"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="25"/>
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
@@ -5401,11 +5144,11 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
-      <c r="K123" s="28"/>
-      <c r="L123" s="28"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="25"/>
+      <c r="K123" s="25"/>
+      <c r="L123" s="25"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
@@ -5415,11 +5158,11 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
-      <c r="K124" s="28"/>
-      <c r="L124" s="28"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="25"/>
+      <c r="K124" s="25"/>
+      <c r="L124" s="25"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
@@ -5429,11 +5172,11 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
-      <c r="K125" s="28"/>
-      <c r="L125" s="28"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
@@ -5443,11 +5186,11 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
-      <c r="K126" s="28"/>
-      <c r="L126" s="28"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="25"/>
+      <c r="K126" s="25"/>
+      <c r="L126" s="25"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
@@ -5457,11 +5200,11 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
-      <c r="K127" s="28"/>
-      <c r="L127" s="28"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
@@ -5471,11 +5214,11 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
-      <c r="K128" s="28"/>
-      <c r="L128" s="28"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
@@ -5485,11 +5228,11 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
-      <c r="K129" s="28"/>
-      <c r="L129" s="28"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="25"/>
+      <c r="K129" s="25"/>
+      <c r="L129" s="25"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
@@ -5499,11 +5242,11 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
-      <c r="K130" s="28"/>
-      <c r="L130" s="28"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -5513,11 +5256,11 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
-      <c r="K131" s="28"/>
-      <c r="L131" s="28"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="25"/>
+      <c r="K131" s="25"/>
+      <c r="L131" s="25"/>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
@@ -5527,11 +5270,11 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="28"/>
-      <c r="I132" s="28"/>
-      <c r="J132" s="28"/>
-      <c r="K132" s="28"/>
-      <c r="L132" s="28"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -5541,11 +5284,11 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
-      <c r="K133" s="28"/>
-      <c r="L133" s="28"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="25"/>
+      <c r="K133" s="25"/>
+      <c r="L133" s="25"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
@@ -5555,11 +5298,11 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
-      <c r="K134" s="28"/>
-      <c r="L134" s="28"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
@@ -5569,11 +5312,11 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
-      <c r="K135" s="28"/>
-      <c r="L135" s="28"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="25"/>
+      <c r="K135" s="25"/>
+      <c r="L135" s="25"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
@@ -5583,11 +5326,11 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
-      <c r="K136" s="28"/>
-      <c r="L136" s="28"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="25"/>
+      <c r="K136" s="25"/>
+      <c r="L136" s="25"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
@@ -5597,11 +5340,11 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
-      <c r="K137" s="28"/>
-      <c r="L137" s="28"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
@@ -5611,11 +5354,11 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
-      <c r="K138" s="28"/>
-      <c r="L138" s="28"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="25"/>
+      <c r="K138" s="25"/>
+      <c r="L138" s="25"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -5625,11 +5368,11 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
-      <c r="K139" s="28"/>
-      <c r="L139" s="28"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
@@ -5639,11 +5382,11 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
-      <c r="K140" s="28"/>
-      <c r="L140" s="28"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="25"/>
+      <c r="K140" s="25"/>
+      <c r="L140" s="25"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -5653,11 +5396,11 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
-      <c r="K141" s="28"/>
-      <c r="L141" s="28"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="25"/>
+      <c r="L141" s="25"/>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
@@ -5667,11 +5410,11 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
-      <c r="K142" s="28"/>
-      <c r="L142" s="28"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="25"/>
+      <c r="K142" s="25"/>
+      <c r="L142" s="25"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -5681,11 +5424,11 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
-      <c r="K143" s="28"/>
-      <c r="L143" s="28"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="25"/>
+      <c r="K143" s="25"/>
+      <c r="L143" s="25"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
@@ -5695,11 +5438,11 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="28"/>
-      <c r="I144" s="28"/>
-      <c r="J144" s="28"/>
-      <c r="K144" s="28"/>
-      <c r="L144" s="28"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
@@ -5709,11 +5452,11 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="28"/>
-      <c r="L145" s="28"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
@@ -5723,11 +5466,11 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="28"/>
-      <c r="L146" s="28"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
@@ -5737,11 +5480,11 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="28"/>
-      <c r="L147" s="28"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
@@ -5751,11 +5494,11 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
-      <c r="K148" s="28"/>
-      <c r="L148" s="28"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -5765,11 +5508,11 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
-      <c r="K149" s="28"/>
-      <c r="L149" s="28"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -5779,11 +5522,11 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="28"/>
-      <c r="I150" s="28"/>
-      <c r="J150" s="28"/>
-      <c r="K150" s="28"/>
-      <c r="L150" s="28"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
@@ -5793,11 +5536,11 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="28"/>
-      <c r="I151" s="28"/>
-      <c r="J151" s="28"/>
-      <c r="K151" s="28"/>
-      <c r="L151" s="28"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
@@ -5807,11 +5550,11 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="28"/>
-      <c r="I152" s="28"/>
-      <c r="J152" s="28"/>
-      <c r="K152" s="28"/>
-      <c r="L152" s="28"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="25"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
@@ -5821,11 +5564,11 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="28"/>
-      <c r="I153" s="28"/>
-      <c r="J153" s="28"/>
-      <c r="K153" s="28"/>
-      <c r="L153" s="28"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
@@ -5835,11 +5578,11 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="28"/>
-      <c r="I154" s="28"/>
-      <c r="J154" s="28"/>
-      <c r="K154" s="28"/>
-      <c r="L154" s="28"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -5849,11 +5592,11 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="28"/>
-      <c r="I155" s="28"/>
-      <c r="J155" s="28"/>
-      <c r="K155" s="28"/>
-      <c r="L155" s="28"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
@@ -5863,11 +5606,11 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="28"/>
-      <c r="I156" s="28"/>
-      <c r="J156" s="28"/>
-      <c r="K156" s="28"/>
-      <c r="L156" s="28"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
@@ -5877,11 +5620,11 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="28"/>
-      <c r="I157" s="28"/>
-      <c r="J157" s="28"/>
-      <c r="K157" s="28"/>
-      <c r="L157" s="28"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
@@ -5891,11 +5634,11 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="28"/>
-      <c r="I158" s="28"/>
-      <c r="J158" s="28"/>
-      <c r="K158" s="28"/>
-      <c r="L158" s="28"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
@@ -5905,11 +5648,11 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="28"/>
-      <c r="I159" s="28"/>
-      <c r="J159" s="28"/>
-      <c r="K159" s="28"/>
-      <c r="L159" s="28"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -5919,11 +5662,11 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="28"/>
-      <c r="I160" s="28"/>
-      <c r="J160" s="28"/>
-      <c r="K160" s="28"/>
-      <c r="L160" s="28"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="25"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
@@ -5933,11 +5676,11 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="28"/>
-      <c r="I161" s="28"/>
-      <c r="J161" s="28"/>
-      <c r="K161" s="28"/>
-      <c r="L161" s="28"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="25"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
@@ -5947,11 +5690,11 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="28"/>
-      <c r="I162" s="28"/>
-      <c r="J162" s="28"/>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="25"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
@@ -5961,11 +5704,11 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="28"/>
-      <c r="I163" s="28"/>
-      <c r="J163" s="28"/>
-      <c r="K163" s="28"/>
-      <c r="L163" s="28"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="25"/>
+      <c r="K163" s="25"/>
+      <c r="L163" s="25"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
@@ -5975,11 +5718,11 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="28"/>
-      <c r="I164" s="28"/>
-      <c r="J164" s="28"/>
-      <c r="K164" s="28"/>
-      <c r="L164" s="28"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="25"/>
+      <c r="K164" s="25"/>
+      <c r="L164" s="25"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -5989,11 +5732,11 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="28"/>
-      <c r="I165" s="28"/>
-      <c r="J165" s="28"/>
-      <c r="K165" s="28"/>
-      <c r="L165" s="28"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="25"/>
+      <c r="K165" s="25"/>
+      <c r="L165" s="25"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:AB165" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
@@ -6042,34 +5785,34 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="str">
+      <c r="A3" s="34" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>223</v>
+      <c r="D4" s="33" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>242</v>
+        <v>189</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -6077,13 +5820,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -6108,13 +5851,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -6174,7 +5917,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -6186,25 +5929,25 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6240,13 +5983,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="25"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6276,7 +6019,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6294,7 +6037,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6306,7 +6049,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6324,7 +6067,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6336,13 +6079,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
+      <c r="A48" s="25"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6354,19 +6097,19 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
+      <c r="A52" s="25"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6390,7 +6133,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
+      <c r="A57" s="25"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6408,7 +6151,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6426,7 +6169,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6474,19 +6217,19 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -6516,7 +6259,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6528,7 +6271,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -6540,7 +6283,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -6564,7 +6307,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -6582,7 +6325,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -6606,15 +6349,15 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="28"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6630,7 +6373,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6642,31 +6385,31 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
+      <c r="A101" s="25"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6677,12 +6420,12 @@
     <sortCondition ref="A5:A8"/>
   </sortState>
   <conditionalFormatting sqref="A5:A103">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>LEN(A5)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>A3="NAMES OKAY"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6693,1474 +6436,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08D4187-8BE1-4B7A-A634-AC08177090E1}">
-  <dimension ref="A1:L103"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="28"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A4:E103" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D103" xr:uid="{BEBEE289-74B6-45AF-B472-6AAD4F987537}">
-      <formula1>"C-Type, Single, High Pass"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8186,17 +6467,17 @@
       <c r="B1" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>246</v>
+      <c r="A4" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8206,11 +6487,11 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>136</v>
+      <c r="A5" s="44" t="s">
+        <v>135</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -8220,7 +6501,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="12" t="s">
         <v>82</v>
       </c>
@@ -8232,9 +6513,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -8244,19 +6525,19 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="12" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>245</v>
+        <v>192</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="12" t="s">
         <v>83</v>
       </c>
@@ -8268,7 +6549,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="12" t="s">
         <v>84</v>
       </c>
@@ -8280,9 +6561,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -8292,7 +6573,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="12" t="s">
         <v>85</v>
       </c>
@@ -8304,7 +6585,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="12" t="s">
         <v>86</v>
       </c>
@@ -8316,7 +6597,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="12" t="s">
         <v>87</v>
       </c>
@@ -8328,7 +6609,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="12" t="s">
         <v>88</v>
       </c>
@@ -8340,11 +6621,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
-        <v>137</v>
+      <c r="A16" s="44" t="s">
+        <v>136</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" t="s">
         <v>39</v>
@@ -8354,9 +6635,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -8366,9 +6647,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
@@ -8378,21 +6659,21 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>240</v>
+      <c r="A19" s="44"/>
+      <c r="B19" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
@@ -8402,11 +6683,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>138</v>
+      <c r="A21" s="44" t="s">
+        <v>137</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -8416,9 +6697,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -8428,9 +6709,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -8440,9 +6721,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -8452,9 +6733,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -8464,9 +6745,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -8476,9 +6757,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
@@ -8488,9 +6769,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
         <v>50</v>
@@ -8500,9 +6781,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
         <v>51</v>
@@ -8512,9 +6793,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>52</v>
@@ -8524,9 +6805,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>53</v>
@@ -8536,11 +6817,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
-        <v>139</v>
+      <c r="A32" s="44" t="s">
+        <v>138</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>54</v>
@@ -8550,9 +6831,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>55</v>
@@ -8562,9 +6843,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>56</v>
@@ -8574,9 +6855,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
         <v>57</v>
@@ -8586,9 +6867,9 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -8598,9 +6879,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
         <v>59</v>
@@ -8610,9 +6891,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
         <v>60</v>
@@ -8622,9 +6903,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C39" t="s">
         <v>61</v>
@@ -8634,11 +6915,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="48" t="s">
-        <v>140</v>
+      <c r="A40" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
         <v>62</v>
@@ -8648,9 +6929,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -8660,9 +6941,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -8672,9 +6953,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="48"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -8684,9 +6965,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" t="s">
         <v>66</v>
@@ -8696,9 +6977,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
         <v>67</v>
@@ -8708,9 +6989,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="48"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -8720,21 +7001,21 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
-      <c r="B47" s="16" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="44"/>
+      <c r="B48" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
-      <c r="B48" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="C48" t="s">
         <v>70</v>
@@ -8744,23 +7025,23 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
-      <c r="B49" s="16" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="C50" t="s">
         <v>71</v>
@@ -8770,9 +7051,9 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
         <v>72</v>
@@ -8782,9 +7063,9 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C52" t="s">
         <v>73</v>
@@ -8794,11 +7075,11 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="48" t="s">
-        <v>142</v>
+      <c r="A53" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -8808,9 +7089,9 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C54" t="s">
         <v>75</v>
@@ -8820,9 +7101,9 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
         <v>76</v>
@@ -8832,9 +7113,9 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C56" t="s">
         <v>77</v>
@@ -8844,9 +7125,9 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C57" t="s">
         <v>78</v>
@@ -8856,9 +7137,9 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C58" t="s">
         <v>79</v>
@@ -8868,11 +7149,11 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="48" t="s">
-        <v>143</v>
+      <c r="A59" s="44" t="s">
+        <v>142</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>80</v>
@@ -8882,9 +7163,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" t="s">
         <v>81</v>
@@ -8905,17 +7186,17 @@
     <mergeCell ref="A50:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D60">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8934,13 +7215,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8957,445 +7238,173 @@
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>89</v>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
-        <v>146</v>
+      <c r="A5" s="44" t="s">
+        <v>145</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="D5" s="14">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="44"/>
       <c r="B6" s="12" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="44"/>
+      <c r="B7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="44"/>
+      <c r="B8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D8" s="14">
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
         <v>150</v>
       </c>
-      <c r="D7">
+      <c r="D9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
         <v>152</v>
       </c>
-      <c r="D9">
-        <f>D6</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
         <v>153</v>
       </c>
-      <c r="D10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
         <v>155</v>
       </c>
-      <c r="D12">
-        <f>D5</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13">
-        <f>D6</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
-      <c r="B14" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" t="s">
-        <v>157</v>
-      </c>
       <c r="D14">
-        <f>D6/D5</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
-      <c r="B15" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" t="s">
-        <v>162</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
-      <c r="B20" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C20" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A5:A10"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D11 D20" xr:uid="{00000000-0002-0000-0600-000000000000}">
+  <conditionalFormatting sqref="A4:D4">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$D$4=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$D$4=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:D14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$D$4&lt;&gt;FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10 D14" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Empty" error="Cannot be empty, please enter either False or the name of an existing Load Flow Command to use (i.e. Load Flow Calculation.ComLdf)" sqref="D4" xr:uid="{42D043D2-3C7A-4D4E-87FE-BDCE83E0F9BB}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="90.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="C5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
-      <c r="B9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9" s="24">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
-      <c r="B10" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11">
-        <f>D10/D9</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
-      <c r="B13" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
-      <c r="B17" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
-      <c r="B18" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
-      <c r="B19" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D19">
-        <v>1.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A5:A13"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D8 D14:D15 D17:D18" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>"0,1"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA67C7-2DEA-4553-A488-A4D32CA48F46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CE4E7-2AB4-4AB2-B08D-E39E60B95CDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2310" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Frequency_Sweep" sheetId="15" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contingencies!$A$4:$AB$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Contingencies!$A$5:$AB$166</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Terminals!$A$4:$D$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -147,6 +147,40 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{1324FEA5-0E71-4B75-B73D-51DF77A05AEB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Either enter the name of the Load Flow command in the study case (typically "Load Flow Calculation.ComLdf") to use or set to False and populate the settings below.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
     <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -250,7 +284,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -284,7 +318,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
@@ -319,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="219">
   <si>
     <t>Name</t>
   </si>
@@ -964,6 +998,18 @@
   </si>
   <si>
     <t>Frequency Sweep</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Contingency Analysis</t>
+  </si>
+  <si>
+    <t>.ComSimoutage</t>
+  </si>
+  <si>
+    <t>Name of existing contingency analysis command that includes details of all of the contingencies to be considered (Set to FALSE if not using)</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1136,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1109,47 +1155,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1176,19 +1181,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1252,25 +1244,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1303,13 +1365,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1323,34 +1384,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1785,7 +1898,7 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="25" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="4">
@@ -1796,22 +1909,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="6"/>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -1840,19 +1953,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="29" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -1860,68 +1973,68 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="16" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="16" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="20" t="b">
+      <c r="B8" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="20" t="b">
+      <c r="B9" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="20" t="b">
+      <c r="B10" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="13" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1929,21 +2042,21 @@
       <c r="A11" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B11" s="20" t="b">
+      <c r="B11" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B12" s="20" t="b">
+      <c r="B12" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1979,25 +2092,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="10"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2005,13 +2118,13 @@
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2019,109 +2132,109 @@
       <c r="A6" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="24" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="31"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="31"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="31"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="31"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="31"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="31"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="31"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="31"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="31"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="31"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="31"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="31"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="31"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="31"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -2133,12 +2246,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:AB165"/>
+  <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2259,7 @@
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2154,177 +2267,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="41" t="s">
+    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="38" t="s">
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="38" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="38" t="s">
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="38" t="s">
+      <c r="L4" s="32"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="38" t="s">
+      <c r="O4" s="32"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="39"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="38" t="s">
+      <c r="R4" s="32"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="39"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="38" t="s">
+      <c r="U4" s="32"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="38" t="s">
+      <c r="X4" s="32"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="40"/>
-    </row>
-    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="33"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="T4" s="11" t="s">
+      <c r="T5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="W4" s="11" t="s">
+      <c r="W5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y5" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="Z5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB5" s="42" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="3"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2338,11 +2436,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -2361,18 +2459,22 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2398,11 +2500,11 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2428,11 +2530,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2458,11 +2560,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2488,11 +2590,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2518,11 +2620,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2548,11 +2650,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2578,11 +2680,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2608,11 +2710,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2638,11 +2740,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2668,11 +2770,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2698,11 +2800,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2728,11 +2830,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2758,11 +2860,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2788,11 +2890,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2818,11 +2920,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2848,11 +2950,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2878,11 +2980,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -2908,11 +3010,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -2938,11 +3040,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -2968,11 +3070,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -2998,11 +3100,11 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3028,11 +3130,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3058,11 +3160,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="25"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3088,11 +3190,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="25"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3118,11 +3220,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="25"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3148,11 +3250,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="25"/>
-      <c r="K33" s="25"/>
-      <c r="L33" s="25"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3178,11 +3280,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="25"/>
-      <c r="L34" s="25"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3208,11 +3310,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3238,11 +3340,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25"/>
-      <c r="L36" s="25"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3268,11 +3370,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="25"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3298,11 +3400,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3328,11 +3430,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="25"/>
-      <c r="K39" s="25"/>
-      <c r="L39" s="25"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3358,11 +3460,11 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3388,11 +3490,11 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3418,11 +3520,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3448,11 +3550,11 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3478,11 +3580,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3508,11 +3610,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="19"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3538,11 +3640,11 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3568,11 +3670,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3598,11 +3700,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3628,11 +3730,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3658,11 +3760,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="25"/>
-      <c r="K50" s="25"/>
-      <c r="L50" s="25"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3688,11 +3790,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3718,11 +3820,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -3748,11 +3850,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="25"/>
-      <c r="K53" s="25"/>
-      <c r="L53" s="25"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -3778,11 +3880,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="25"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="25"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -3808,11 +3910,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="25"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="25"/>
-      <c r="K55" s="25"/>
-      <c r="L55" s="25"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -3838,11 +3940,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -3868,11 +3970,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -3898,11 +4000,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="25"/>
-      <c r="L58" s="25"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -3928,11 +4030,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="25"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -3958,11 +4060,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="25"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -3988,11 +4090,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="25"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="25"/>
-      <c r="L61" s="25"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4018,11 +4120,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4048,11 +4150,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
-      <c r="L63" s="25"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="19"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -4078,11 +4180,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
-      <c r="L64" s="25"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="19"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -4108,11 +4210,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="25"/>
-      <c r="L65" s="25"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -4138,11 +4240,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -4168,11 +4270,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
-      <c r="L67" s="25"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -4198,11 +4300,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
-      <c r="L68" s="25"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -4228,11 +4330,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
-      <c r="L69" s="25"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4258,11 +4360,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
-      <c r="L70" s="25"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="19"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4288,11 +4390,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4318,11 +4420,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
-      <c r="L72" s="25"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="19"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4348,11 +4450,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
-      <c r="L73" s="25"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4378,11 +4480,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4408,11 +4510,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
-      <c r="L75" s="25"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -4438,11 +4540,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -4468,11 +4570,11 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
-      <c r="L77" s="25"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -4498,11 +4600,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
-      <c r="L78" s="25"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="19"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -4528,11 +4630,27 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
@@ -4542,13 +4660,29 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
-      <c r="L80" s="25"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4556,13 +4690,29 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
-      <c r="L81" s="25"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="19"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4570,13 +4720,29 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
-      <c r="L82" s="25"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="19"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4584,13 +4750,29 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
-      <c r="L83" s="25"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="19"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4598,13 +4780,29 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4612,13 +4810,29 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
-      <c r="L85" s="25"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3"/>
+      <c r="AA85" s="3"/>
+      <c r="AB85" s="3"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4626,13 +4840,29 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3"/>
+      <c r="AA86" s="3"/>
+      <c r="AB86" s="3"/>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4640,13 +4870,29 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3"/>
+      <c r="AA87" s="3"/>
+      <c r="AB87" s="3"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4654,13 +4900,29 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
-      <c r="L88" s="25"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3"/>
+      <c r="AA88" s="3"/>
+      <c r="AB88" s="3"/>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4668,13 +4930,29 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3"/>
+      <c r="AA89" s="3"/>
+      <c r="AB89" s="3"/>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4682,13 +4960,29 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="25"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="25"/>
-      <c r="K90" s="25"/>
-      <c r="L90" s="25"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4696,13 +4990,29 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="25"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="25"/>
-      <c r="K91" s="25"/>
-      <c r="L91" s="25"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3"/>
+      <c r="AB91" s="3"/>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4710,13 +5020,29 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="25"/>
-      <c r="K92" s="25"/>
-      <c r="L92" s="25"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3"/>
+      <c r="AB92" s="3"/>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4724,13 +5050,29 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="25"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="25"/>
-      <c r="K93" s="25"/>
-      <c r="L93" s="25"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3"/>
+      <c r="AB93" s="3"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4738,13 +5080,29 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="25"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="25"/>
-      <c r="K94" s="25"/>
-      <c r="L94" s="25"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3"/>
+      <c r="AB94" s="3"/>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4752,13 +5110,29 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="25"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="25"/>
-      <c r="K95" s="25"/>
-      <c r="L95" s="25"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -4766,13 +5140,29 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="25"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="25"/>
-      <c r="K96" s="25"/>
-      <c r="L96" s="25"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3"/>
+      <c r="AB96" s="3"/>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -4780,13 +5170,29 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="25"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4794,13 +5200,29 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="25"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="25"/>
-      <c r="K98" s="25"/>
-      <c r="L98" s="25"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3"/>
+      <c r="AB98" s="3"/>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4808,13 +5230,29 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="19"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3"/>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -4822,13 +5260,29 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="25"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="19"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3"/>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -4836,13 +5290,29 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="25"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="25"/>
-      <c r="K101" s="25"/>
-      <c r="L101" s="25"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
+      <c r="K101" s="19"/>
+      <c r="L101" s="19"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="3"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3"/>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3"/>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -4850,13 +5320,29 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="25"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
+      <c r="K102" s="19"/>
+      <c r="L102" s="19"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3"/>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3"/>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -4864,13 +5350,29 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="25"/>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -4878,13 +5380,29 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="25"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="3"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3"/>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3"/>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -4892,13 +5410,29 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="25"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="25"/>
-      <c r="K105" s="25"/>
-      <c r="L105" s="25"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+      <c r="K105" s="19"/>
+      <c r="L105" s="19"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="3"/>
+      <c r="P105" s="3"/>
+      <c r="Q105" s="3"/>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3"/>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -4906,13 +5440,29 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="25"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="25"/>
-      <c r="K106" s="25"/>
-      <c r="L106" s="25"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H106" s="19"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="19"/>
+      <c r="K106" s="19"/>
+      <c r="L106" s="19"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="3"/>
+      <c r="Q106" s="3"/>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3"/>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -4920,13 +5470,29 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="25"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="25"/>
-      <c r="K107" s="25"/>
-      <c r="L107" s="25"/>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H107" s="19"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="19"/>
+      <c r="K107" s="19"/>
+      <c r="L107" s="19"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="3"/>
+      <c r="P107" s="3"/>
+      <c r="Q107" s="3"/>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3"/>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -4934,13 +5500,29 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="25"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="25"/>
-      <c r="K108" s="25"/>
-      <c r="L108" s="25"/>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="3"/>
+      <c r="P108" s="3"/>
+      <c r="Q108" s="3"/>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3"/>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -4948,13 +5530,29 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="25"/>
-      <c r="K109" s="25"/>
-      <c r="L109" s="25"/>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H109" s="19"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="19"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="19"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="3"/>
+      <c r="P109" s="3"/>
+      <c r="Q109" s="3"/>
+      <c r="R109" s="3"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="3"/>
+      <c r="U109" s="3"/>
+      <c r="V109" s="3"/>
+      <c r="W109" s="3"/>
+      <c r="X109" s="3"/>
+      <c r="Y109" s="3"/>
+      <c r="Z109" s="3"/>
+      <c r="AA109" s="3"/>
+      <c r="AB109" s="3"/>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -4962,13 +5560,29 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="25"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H110" s="19"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="19"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="19"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="3"/>
+      <c r="U110" s="3"/>
+      <c r="V110" s="3"/>
+      <c r="W110" s="3"/>
+      <c r="X110" s="3"/>
+      <c r="Y110" s="3"/>
+      <c r="Z110" s="3"/>
+      <c r="AA110" s="3"/>
+      <c r="AB110" s="3"/>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -4976,13 +5590,29 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="25"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="25"/>
-      <c r="K111" s="25"/>
-      <c r="L111" s="25"/>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="19"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="3"/>
+      <c r="Z111" s="3"/>
+      <c r="AA111" s="3"/>
+      <c r="AB111" s="3"/>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -4990,13 +5620,29 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="25"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="3"/>
+      <c r="Q112" s="3"/>
+      <c r="R112" s="3"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="3"/>
+      <c r="U112" s="3"/>
+      <c r="V112" s="3"/>
+      <c r="W112" s="3"/>
+      <c r="X112" s="3"/>
+      <c r="Y112" s="3"/>
+      <c r="Z112" s="3"/>
+      <c r="AA112" s="3"/>
+      <c r="AB112" s="3"/>
+    </row>
+    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5004,13 +5650,29 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="25"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="3"/>
+      <c r="Q113" s="3"/>
+      <c r="R113" s="3"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="3"/>
+      <c r="U113" s="3"/>
+      <c r="V113" s="3"/>
+      <c r="W113" s="3"/>
+      <c r="X113" s="3"/>
+      <c r="Y113" s="3"/>
+      <c r="Z113" s="3"/>
+      <c r="AA113" s="3"/>
+      <c r="AB113" s="3"/>
+    </row>
+    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -5018,13 +5680,29 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="25"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="25"/>
-      <c r="K114" s="25"/>
-      <c r="L114" s="25"/>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H114" s="19"/>
+      <c r="I114" s="19"/>
+      <c r="J114" s="19"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="19"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="3"/>
+      <c r="P114" s="3"/>
+      <c r="Q114" s="3"/>
+      <c r="R114" s="3"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="3"/>
+      <c r="U114" s="3"/>
+      <c r="V114" s="3"/>
+      <c r="W114" s="3"/>
+      <c r="X114" s="3"/>
+      <c r="Y114" s="3"/>
+      <c r="Z114" s="3"/>
+      <c r="AA114" s="3"/>
+      <c r="AB114" s="3"/>
+    </row>
+    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5032,13 +5710,29 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H115" s="19"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="19"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="19"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="3"/>
+      <c r="Q115" s="3"/>
+      <c r="R115" s="3"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3"/>
+      <c r="U115" s="3"/>
+      <c r="V115" s="3"/>
+      <c r="W115" s="3"/>
+      <c r="X115" s="3"/>
+      <c r="Y115" s="3"/>
+      <c r="Z115" s="3"/>
+      <c r="AA115" s="3"/>
+      <c r="AB115" s="3"/>
+    </row>
+    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -5046,13 +5740,29 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="25"/>
-      <c r="I116" s="25"/>
-      <c r="J116" s="25"/>
-      <c r="K116" s="25"/>
-      <c r="L116" s="25"/>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H116" s="19"/>
+      <c r="I116" s="19"/>
+      <c r="J116" s="19"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="19"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="3"/>
+      <c r="P116" s="3"/>
+      <c r="Q116" s="3"/>
+      <c r="R116" s="3"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="3"/>
+      <c r="U116" s="3"/>
+      <c r="V116" s="3"/>
+      <c r="W116" s="3"/>
+      <c r="X116" s="3"/>
+      <c r="Y116" s="3"/>
+      <c r="Z116" s="3"/>
+      <c r="AA116" s="3"/>
+      <c r="AB116" s="3"/>
+    </row>
+    <row r="117" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -5060,13 +5770,29 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="25"/>
-      <c r="I117" s="25"/>
-      <c r="J117" s="25"/>
-      <c r="K117" s="25"/>
-      <c r="L117" s="25"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H117" s="19"/>
+      <c r="I117" s="19"/>
+      <c r="J117" s="19"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="19"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="3"/>
+      <c r="Q117" s="3"/>
+      <c r="R117" s="3"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="3"/>
+      <c r="U117" s="3"/>
+      <c r="V117" s="3"/>
+      <c r="W117" s="3"/>
+      <c r="X117" s="3"/>
+      <c r="Y117" s="3"/>
+      <c r="Z117" s="3"/>
+      <c r="AA117" s="3"/>
+      <c r="AB117" s="3"/>
+    </row>
+    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -5074,13 +5800,29 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="25"/>
-      <c r="I118" s="25"/>
-      <c r="J118" s="25"/>
-      <c r="K118" s="25"/>
-      <c r="L118" s="25"/>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="3"/>
+      <c r="P118" s="3"/>
+      <c r="Q118" s="3"/>
+      <c r="R118" s="3"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="3"/>
+      <c r="U118" s="3"/>
+      <c r="V118" s="3"/>
+      <c r="W118" s="3"/>
+      <c r="X118" s="3"/>
+      <c r="Y118" s="3"/>
+      <c r="Z118" s="3"/>
+      <c r="AA118" s="3"/>
+      <c r="AB118" s="3"/>
+    </row>
+    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -5088,13 +5830,29 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="25"/>
-      <c r="I119" s="25"/>
-      <c r="J119" s="25"/>
-      <c r="K119" s="25"/>
-      <c r="L119" s="25"/>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="3"/>
+      <c r="P119" s="3"/>
+      <c r="Q119" s="3"/>
+      <c r="R119" s="3"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3"/>
+      <c r="V119" s="3"/>
+      <c r="W119" s="3"/>
+      <c r="X119" s="3"/>
+      <c r="Y119" s="3"/>
+      <c r="Z119" s="3"/>
+      <c r="AA119" s="3"/>
+      <c r="AB119" s="3"/>
+    </row>
+    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -5102,13 +5860,29 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="25"/>
-      <c r="I120" s="25"/>
-      <c r="J120" s="25"/>
-      <c r="K120" s="25"/>
-      <c r="L120" s="25"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H120" s="19"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="K120" s="19"/>
+      <c r="L120" s="19"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="3"/>
+      <c r="P120" s="3"/>
+      <c r="Q120" s="3"/>
+      <c r="R120" s="3"/>
+      <c r="S120" s="3"/>
+      <c r="T120" s="3"/>
+      <c r="U120" s="3"/>
+      <c r="V120" s="3"/>
+      <c r="W120" s="3"/>
+      <c r="X120" s="3"/>
+      <c r="Y120" s="3"/>
+      <c r="Z120" s="3"/>
+      <c r="AA120" s="3"/>
+      <c r="AB120" s="3"/>
+    </row>
+    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -5116,13 +5890,29 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="25"/>
-      <c r="I121" s="25"/>
-      <c r="J121" s="25"/>
-      <c r="K121" s="25"/>
-      <c r="L121" s="25"/>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H121" s="19"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="K121" s="19"/>
+      <c r="L121" s="19"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="3"/>
+      <c r="P121" s="3"/>
+      <c r="Q121" s="3"/>
+      <c r="R121" s="3"/>
+      <c r="S121" s="3"/>
+      <c r="T121" s="3"/>
+      <c r="U121" s="3"/>
+      <c r="V121" s="3"/>
+      <c r="W121" s="3"/>
+      <c r="X121" s="3"/>
+      <c r="Y121" s="3"/>
+      <c r="Z121" s="3"/>
+      <c r="AA121" s="3"/>
+      <c r="AB121" s="3"/>
+    </row>
+    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -5130,13 +5920,29 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="25"/>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+      <c r="R122" s="3"/>
+      <c r="S122" s="3"/>
+      <c r="T122" s="3"/>
+      <c r="U122" s="3"/>
+      <c r="V122" s="3"/>
+      <c r="W122" s="3"/>
+      <c r="X122" s="3"/>
+      <c r="Y122" s="3"/>
+      <c r="Z122" s="3"/>
+      <c r="AA122" s="3"/>
+      <c r="AB122" s="3"/>
+    </row>
+    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -5144,13 +5950,29 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="25"/>
-      <c r="I123" s="25"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+      <c r="R123" s="3"/>
+      <c r="S123" s="3"/>
+      <c r="T123" s="3"/>
+      <c r="U123" s="3"/>
+      <c r="V123" s="3"/>
+      <c r="W123" s="3"/>
+      <c r="X123" s="3"/>
+      <c r="Y123" s="3"/>
+      <c r="Z123" s="3"/>
+      <c r="AA123" s="3"/>
+      <c r="AB123" s="3"/>
+    </row>
+    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -5158,13 +5980,29 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="25"/>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
+      <c r="R124" s="3"/>
+      <c r="S124" s="3"/>
+      <c r="T124" s="3"/>
+      <c r="U124" s="3"/>
+      <c r="V124" s="3"/>
+      <c r="W124" s="3"/>
+      <c r="X124" s="3"/>
+      <c r="Y124" s="3"/>
+      <c r="Z124" s="3"/>
+      <c r="AA124" s="3"/>
+      <c r="AB124" s="3"/>
+    </row>
+    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -5172,13 +6010,29 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="25"/>
-      <c r="I125" s="25"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="3"/>
+      <c r="P125" s="3"/>
+      <c r="Q125" s="3"/>
+      <c r="R125" s="3"/>
+      <c r="S125" s="3"/>
+      <c r="T125" s="3"/>
+      <c r="U125" s="3"/>
+      <c r="V125" s="3"/>
+      <c r="W125" s="3"/>
+      <c r="X125" s="3"/>
+      <c r="Y125" s="3"/>
+      <c r="Z125" s="3"/>
+      <c r="AA125" s="3"/>
+      <c r="AB125" s="3"/>
+    </row>
+    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -5186,13 +6040,29 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="25"/>
-      <c r="I126" s="25"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="3"/>
+      <c r="P126" s="3"/>
+      <c r="Q126" s="3"/>
+      <c r="R126" s="3"/>
+      <c r="S126" s="3"/>
+      <c r="T126" s="3"/>
+      <c r="U126" s="3"/>
+      <c r="V126" s="3"/>
+      <c r="W126" s="3"/>
+      <c r="X126" s="3"/>
+      <c r="Y126" s="3"/>
+      <c r="Z126" s="3"/>
+      <c r="AA126" s="3"/>
+      <c r="AB126" s="3"/>
+    </row>
+    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -5200,13 +6070,29 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="25"/>
-      <c r="I127" s="25"/>
-      <c r="J127" s="25"/>
-      <c r="K127" s="25"/>
-      <c r="L127" s="25"/>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="3"/>
+      <c r="P127" s="3"/>
+      <c r="Q127" s="3"/>
+      <c r="R127" s="3"/>
+      <c r="S127" s="3"/>
+      <c r="T127" s="3"/>
+      <c r="U127" s="3"/>
+      <c r="V127" s="3"/>
+      <c r="W127" s="3"/>
+      <c r="X127" s="3"/>
+      <c r="Y127" s="3"/>
+      <c r="Z127" s="3"/>
+      <c r="AA127" s="3"/>
+      <c r="AB127" s="3"/>
+    </row>
+    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -5214,13 +6100,29 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="25"/>
-      <c r="I128" s="25"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H128" s="19"/>
+      <c r="I128" s="19"/>
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="3"/>
+      <c r="P128" s="3"/>
+      <c r="Q128" s="3"/>
+      <c r="R128" s="3"/>
+      <c r="S128" s="3"/>
+      <c r="T128" s="3"/>
+      <c r="U128" s="3"/>
+      <c r="V128" s="3"/>
+      <c r="W128" s="3"/>
+      <c r="X128" s="3"/>
+      <c r="Y128" s="3"/>
+      <c r="Z128" s="3"/>
+      <c r="AA128" s="3"/>
+      <c r="AB128" s="3"/>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -5228,13 +6130,29 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="25"/>
-      <c r="I129" s="25"/>
-      <c r="J129" s="25"/>
-      <c r="K129" s="25"/>
-      <c r="L129" s="25"/>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H129" s="19"/>
+      <c r="I129" s="19"/>
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="3"/>
+      <c r="Z129" s="3"/>
+      <c r="AA129" s="3"/>
+      <c r="AB129" s="3"/>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -5242,13 +6160,29 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="25"/>
-      <c r="I130" s="25"/>
-      <c r="J130" s="25"/>
-      <c r="K130" s="25"/>
-      <c r="L130" s="25"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="3"/>
+      <c r="P130" s="3"/>
+      <c r="Q130" s="3"/>
+      <c r="R130" s="3"/>
+      <c r="S130" s="3"/>
+      <c r="T130" s="3"/>
+      <c r="U130" s="3"/>
+      <c r="V130" s="3"/>
+      <c r="W130" s="3"/>
+      <c r="X130" s="3"/>
+      <c r="Y130" s="3"/>
+      <c r="Z130" s="3"/>
+      <c r="AA130" s="3"/>
+      <c r="AB130" s="3"/>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -5256,13 +6190,29 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="25"/>
-      <c r="K131" s="25"/>
-      <c r="L131" s="25"/>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="3"/>
+      <c r="P131" s="3"/>
+      <c r="Q131" s="3"/>
+      <c r="R131" s="3"/>
+      <c r="S131" s="3"/>
+      <c r="T131" s="3"/>
+      <c r="U131" s="3"/>
+      <c r="V131" s="3"/>
+      <c r="W131" s="3"/>
+      <c r="X131" s="3"/>
+      <c r="Y131" s="3"/>
+      <c r="Z131" s="3"/>
+      <c r="AA131" s="3"/>
+      <c r="AB131" s="3"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -5270,13 +6220,29 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="25"/>
-      <c r="I132" s="25"/>
-      <c r="J132" s="25"/>
-      <c r="K132" s="25"/>
-      <c r="L132" s="25"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="3"/>
+      <c r="P132" s="3"/>
+      <c r="Q132" s="3"/>
+      <c r="R132" s="3"/>
+      <c r="S132" s="3"/>
+      <c r="T132" s="3"/>
+      <c r="U132" s="3"/>
+      <c r="V132" s="3"/>
+      <c r="W132" s="3"/>
+      <c r="X132" s="3"/>
+      <c r="Y132" s="3"/>
+      <c r="Z132" s="3"/>
+      <c r="AA132" s="3"/>
+      <c r="AB132" s="3"/>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5284,13 +6250,29 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="25"/>
-      <c r="I133" s="25"/>
-      <c r="J133" s="25"/>
-      <c r="K133" s="25"/>
-      <c r="L133" s="25"/>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="3"/>
+      <c r="P133" s="3"/>
+      <c r="Q133" s="3"/>
+      <c r="R133" s="3"/>
+      <c r="S133" s="3"/>
+      <c r="T133" s="3"/>
+      <c r="U133" s="3"/>
+      <c r="V133" s="3"/>
+      <c r="W133" s="3"/>
+      <c r="X133" s="3"/>
+      <c r="Y133" s="3"/>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -5298,13 +6280,29 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="25"/>
-      <c r="I134" s="25"/>
-      <c r="J134" s="25"/>
-      <c r="K134" s="25"/>
-      <c r="L134" s="25"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="3"/>
+      <c r="P134" s="3"/>
+      <c r="Q134" s="3"/>
+      <c r="R134" s="3"/>
+      <c r="S134" s="3"/>
+      <c r="T134" s="3"/>
+      <c r="U134" s="3"/>
+      <c r="V134" s="3"/>
+      <c r="W134" s="3"/>
+      <c r="X134" s="3"/>
+      <c r="Y134" s="3"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -5312,13 +6310,29 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="25"/>
-      <c r="I135" s="25"/>
-      <c r="J135" s="25"/>
-      <c r="K135" s="25"/>
-      <c r="L135" s="25"/>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+      <c r="R135" s="3"/>
+      <c r="S135" s="3"/>
+      <c r="T135" s="3"/>
+      <c r="U135" s="3"/>
+      <c r="V135" s="3"/>
+      <c r="W135" s="3"/>
+      <c r="X135" s="3"/>
+      <c r="Y135" s="3"/>
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -5326,13 +6340,29 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="25"/>
-      <c r="I136" s="25"/>
-      <c r="J136" s="25"/>
-      <c r="K136" s="25"/>
-      <c r="L136" s="25"/>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="3"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="3"/>
+      <c r="P136" s="3"/>
+      <c r="Q136" s="3"/>
+      <c r="R136" s="3"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="3"/>
+      <c r="Y136" s="3"/>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
+      <c r="AB136" s="3"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -5340,13 +6370,29 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="25"/>
-      <c r="I137" s="25"/>
-      <c r="J137" s="25"/>
-      <c r="K137" s="25"/>
-      <c r="L137" s="25"/>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="3"/>
+      <c r="P137" s="3"/>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3"/>
+      <c r="S137" s="3"/>
+      <c r="T137" s="3"/>
+      <c r="U137" s="3"/>
+      <c r="V137" s="3"/>
+      <c r="W137" s="3"/>
+      <c r="X137" s="3"/>
+      <c r="Y137" s="3"/>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -5354,13 +6400,29 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
-      <c r="J138" s="25"/>
-      <c r="K138" s="25"/>
-      <c r="L138" s="25"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="3"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="3"/>
+      <c r="P138" s="3"/>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3"/>
+      <c r="S138" s="3"/>
+      <c r="T138" s="3"/>
+      <c r="U138" s="3"/>
+      <c r="V138" s="3"/>
+      <c r="W138" s="3"/>
+      <c r="X138" s="3"/>
+      <c r="Y138" s="3"/>
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -5368,13 +6430,29 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="25"/>
-      <c r="I139" s="25"/>
-      <c r="J139" s="25"/>
-      <c r="K139" s="25"/>
-      <c r="L139" s="25"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="3"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="3"/>
+      <c r="P139" s="3"/>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3"/>
+      <c r="S139" s="3"/>
+      <c r="T139" s="3"/>
+      <c r="U139" s="3"/>
+      <c r="V139" s="3"/>
+      <c r="W139" s="3"/>
+      <c r="X139" s="3"/>
+      <c r="Y139" s="3"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -5382,13 +6460,29 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="25"/>
-      <c r="I140" s="25"/>
-      <c r="J140" s="25"/>
-      <c r="K140" s="25"/>
-      <c r="L140" s="25"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="19"/>
+      <c r="K140" s="19"/>
+      <c r="L140" s="19"/>
+      <c r="M140" s="3"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="3"/>
+      <c r="P140" s="3"/>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3"/>
+      <c r="S140" s="3"/>
+      <c r="T140" s="3"/>
+      <c r="U140" s="3"/>
+      <c r="V140" s="3"/>
+      <c r="W140" s="3"/>
+      <c r="X140" s="3"/>
+      <c r="Y140" s="3"/>
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -5396,13 +6490,29 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="25"/>
-      <c r="K141" s="25"/>
-      <c r="L141" s="25"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="19"/>
+      <c r="K141" s="19"/>
+      <c r="L141" s="19"/>
+      <c r="M141" s="3"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="3"/>
+      <c r="P141" s="3"/>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3"/>
+      <c r="S141" s="3"/>
+      <c r="T141" s="3"/>
+      <c r="U141" s="3"/>
+      <c r="V141" s="3"/>
+      <c r="W141" s="3"/>
+      <c r="X141" s="3"/>
+      <c r="Y141" s="3"/>
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -5410,13 +6520,29 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="25"/>
-      <c r="I142" s="25"/>
-      <c r="J142" s="25"/>
-      <c r="K142" s="25"/>
-      <c r="L142" s="25"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="19"/>
+      <c r="K142" s="19"/>
+      <c r="L142" s="19"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="3"/>
+      <c r="P142" s="3"/>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3"/>
+      <c r="S142" s="3"/>
+      <c r="T142" s="3"/>
+      <c r="U142" s="3"/>
+      <c r="V142" s="3"/>
+      <c r="W142" s="3"/>
+      <c r="X142" s="3"/>
+      <c r="Y142" s="3"/>
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="3"/>
+      <c r="AB142" s="3"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -5424,13 +6550,29 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="3"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="3"/>
+      <c r="P143" s="3"/>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3"/>
+      <c r="S143" s="3"/>
+      <c r="T143" s="3"/>
+      <c r="U143" s="3"/>
+      <c r="V143" s="3"/>
+      <c r="W143" s="3"/>
+      <c r="X143" s="3"/>
+      <c r="Y143" s="3"/>
+      <c r="Z143" s="3"/>
+      <c r="AA143" s="3"/>
+      <c r="AB143" s="3"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -5438,13 +6580,29 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="19"/>
+      <c r="K144" s="19"/>
+      <c r="L144" s="19"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="3"/>
+      <c r="P144" s="3"/>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3"/>
+      <c r="S144" s="3"/>
+      <c r="T144" s="3"/>
+      <c r="U144" s="3"/>
+      <c r="V144" s="3"/>
+      <c r="W144" s="3"/>
+      <c r="X144" s="3"/>
+      <c r="Y144" s="3"/>
+      <c r="Z144" s="3"/>
+      <c r="AA144" s="3"/>
+      <c r="AB144" s="3"/>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -5452,13 +6610,29 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="19"/>
+      <c r="K145" s="19"/>
+      <c r="L145" s="19"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="3"/>
+      <c r="P145" s="3"/>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3"/>
+      <c r="S145" s="3"/>
+      <c r="T145" s="3"/>
+      <c r="U145" s="3"/>
+      <c r="V145" s="3"/>
+      <c r="W145" s="3"/>
+      <c r="X145" s="3"/>
+      <c r="Y145" s="3"/>
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -5466,13 +6640,29 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="25"/>
-      <c r="I146" s="25"/>
-      <c r="J146" s="25"/>
-      <c r="K146" s="25"/>
-      <c r="L146" s="25"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="19"/>
+      <c r="K146" s="19"/>
+      <c r="L146" s="19"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="3"/>
+      <c r="P146" s="3"/>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3"/>
+      <c r="S146" s="3"/>
+      <c r="T146" s="3"/>
+      <c r="U146" s="3"/>
+      <c r="V146" s="3"/>
+      <c r="W146" s="3"/>
+      <c r="X146" s="3"/>
+      <c r="Y146" s="3"/>
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -5480,13 +6670,29 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="25"/>
-      <c r="I147" s="25"/>
-      <c r="J147" s="25"/>
-      <c r="K147" s="25"/>
-      <c r="L147" s="25"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="3"/>
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -5494,13 +6700,29 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="25"/>
-      <c r="I148" s="25"/>
-      <c r="J148" s="25"/>
-      <c r="K148" s="25"/>
-      <c r="L148" s="25"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="19"/>
+      <c r="K148" s="19"/>
+      <c r="L148" s="19"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="3"/>
+      <c r="P148" s="3"/>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3"/>
+      <c r="S148" s="3"/>
+      <c r="T148" s="3"/>
+      <c r="U148" s="3"/>
+      <c r="V148" s="3"/>
+      <c r="W148" s="3"/>
+      <c r="X148" s="3"/>
+      <c r="Y148" s="3"/>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -5508,13 +6730,29 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="25"/>
-      <c r="I149" s="25"/>
-      <c r="J149" s="25"/>
-      <c r="K149" s="25"/>
-      <c r="L149" s="25"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="19"/>
+      <c r="K149" s="19"/>
+      <c r="L149" s="19"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="3"/>
+      <c r="P149" s="3"/>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3"/>
+      <c r="S149" s="3"/>
+      <c r="T149" s="3"/>
+      <c r="U149" s="3"/>
+      <c r="V149" s="3"/>
+      <c r="W149" s="3"/>
+      <c r="X149" s="3"/>
+      <c r="Y149" s="3"/>
+      <c r="Z149" s="3"/>
+      <c r="AA149" s="3"/>
+      <c r="AB149" s="3"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -5522,13 +6760,29 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="19"/>
+      <c r="K150" s="19"/>
+      <c r="L150" s="19"/>
+      <c r="M150" s="3"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="3"/>
+      <c r="P150" s="3"/>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3"/>
+      <c r="S150" s="3"/>
+      <c r="T150" s="3"/>
+      <c r="U150" s="3"/>
+      <c r="V150" s="3"/>
+      <c r="W150" s="3"/>
+      <c r="X150" s="3"/>
+      <c r="Y150" s="3"/>
+      <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -5536,13 +6790,29 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="25"/>
-      <c r="I151" s="25"/>
-      <c r="J151" s="25"/>
-      <c r="K151" s="25"/>
-      <c r="L151" s="25"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="3"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="3"/>
+      <c r="P151" s="3"/>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3"/>
+      <c r="S151" s="3"/>
+      <c r="T151" s="3"/>
+      <c r="U151" s="3"/>
+      <c r="V151" s="3"/>
+      <c r="W151" s="3"/>
+      <c r="X151" s="3"/>
+      <c r="Y151" s="3"/>
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -5550,13 +6820,29 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="25"/>
-      <c r="I152" s="25"/>
-      <c r="J152" s="25"/>
-      <c r="K152" s="25"/>
-      <c r="L152" s="25"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="3"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="3"/>
+      <c r="P152" s="3"/>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3"/>
+      <c r="S152" s="3"/>
+      <c r="T152" s="3"/>
+      <c r="U152" s="3"/>
+      <c r="V152" s="3"/>
+      <c r="W152" s="3"/>
+      <c r="X152" s="3"/>
+      <c r="Y152" s="3"/>
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -5564,13 +6850,29 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="25"/>
-      <c r="I153" s="25"/>
-      <c r="J153" s="25"/>
-      <c r="K153" s="25"/>
-      <c r="L153" s="25"/>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="3"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="3"/>
+      <c r="P153" s="3"/>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3"/>
+      <c r="S153" s="3"/>
+      <c r="T153" s="3"/>
+      <c r="U153" s="3"/>
+      <c r="V153" s="3"/>
+      <c r="W153" s="3"/>
+      <c r="X153" s="3"/>
+      <c r="Y153" s="3"/>
+      <c r="Z153" s="3"/>
+      <c r="AA153" s="3"/>
+      <c r="AB153" s="3"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -5578,13 +6880,29 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="25"/>
-      <c r="I154" s="25"/>
-      <c r="J154" s="25"/>
-      <c r="K154" s="25"/>
-      <c r="L154" s="25"/>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="19"/>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="3"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="3"/>
+      <c r="P154" s="3"/>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3"/>
+      <c r="S154" s="3"/>
+      <c r="T154" s="3"/>
+      <c r="U154" s="3"/>
+      <c r="V154" s="3"/>
+      <c r="W154" s="3"/>
+      <c r="X154" s="3"/>
+      <c r="Y154" s="3"/>
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -5592,13 +6910,29 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="25"/>
-      <c r="I155" s="25"/>
-      <c r="J155" s="25"/>
-      <c r="K155" s="25"/>
-      <c r="L155" s="25"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="3"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="3"/>
+      <c r="P155" s="3"/>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3"/>
+      <c r="S155" s="3"/>
+      <c r="T155" s="3"/>
+      <c r="U155" s="3"/>
+      <c r="V155" s="3"/>
+      <c r="W155" s="3"/>
+      <c r="X155" s="3"/>
+      <c r="Y155" s="3"/>
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -5606,13 +6940,29 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="25"/>
-      <c r="I156" s="25"/>
-      <c r="J156" s="25"/>
-      <c r="K156" s="25"/>
-      <c r="L156" s="25"/>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="3"/>
+      <c r="P156" s="3"/>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3"/>
+      <c r="S156" s="3"/>
+      <c r="T156" s="3"/>
+      <c r="U156" s="3"/>
+      <c r="V156" s="3"/>
+      <c r="W156" s="3"/>
+      <c r="X156" s="3"/>
+      <c r="Y156" s="3"/>
+      <c r="Z156" s="3"/>
+      <c r="AA156" s="3"/>
+      <c r="AB156" s="3"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -5620,13 +6970,29 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="25"/>
-      <c r="K157" s="25"/>
-      <c r="L157" s="25"/>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="3"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="3"/>
+      <c r="P157" s="3"/>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3"/>
+      <c r="S157" s="3"/>
+      <c r="T157" s="3"/>
+      <c r="U157" s="3"/>
+      <c r="V157" s="3"/>
+      <c r="W157" s="3"/>
+      <c r="X157" s="3"/>
+      <c r="Y157" s="3"/>
+      <c r="Z157" s="3"/>
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3"/>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -5634,13 +7000,29 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="25"/>
-      <c r="I158" s="25"/>
-      <c r="J158" s="25"/>
-      <c r="K158" s="25"/>
-      <c r="L158" s="25"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="3"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="3"/>
+      <c r="P158" s="3"/>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3"/>
+      <c r="S158" s="3"/>
+      <c r="T158" s="3"/>
+      <c r="U158" s="3"/>
+      <c r="V158" s="3"/>
+      <c r="W158" s="3"/>
+      <c r="X158" s="3"/>
+      <c r="Y158" s="3"/>
+      <c r="Z158" s="3"/>
+      <c r="AA158" s="3"/>
+      <c r="AB158" s="3"/>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -5648,13 +7030,29 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="25"/>
-      <c r="I159" s="25"/>
-      <c r="J159" s="25"/>
-      <c r="K159" s="25"/>
-      <c r="L159" s="25"/>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="3"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="3"/>
+      <c r="P159" s="3"/>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3"/>
+      <c r="S159" s="3"/>
+      <c r="T159" s="3"/>
+      <c r="U159" s="3"/>
+      <c r="V159" s="3"/>
+      <c r="W159" s="3"/>
+      <c r="X159" s="3"/>
+      <c r="Y159" s="3"/>
+      <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -5662,13 +7060,29 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="25"/>
-      <c r="I160" s="25"/>
-      <c r="J160" s="25"/>
-      <c r="K160" s="25"/>
-      <c r="L160" s="25"/>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="3"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="3"/>
+      <c r="P160" s="3"/>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3"/>
+      <c r="S160" s="3"/>
+      <c r="T160" s="3"/>
+      <c r="U160" s="3"/>
+      <c r="V160" s="3"/>
+      <c r="W160" s="3"/>
+      <c r="X160" s="3"/>
+      <c r="Y160" s="3"/>
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -5676,13 +7090,29 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="25"/>
-      <c r="I161" s="25"/>
-      <c r="J161" s="25"/>
-      <c r="K161" s="25"/>
-      <c r="L161" s="25"/>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="3"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="3"/>
+      <c r="P161" s="3"/>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3"/>
+      <c r="S161" s="3"/>
+      <c r="T161" s="3"/>
+      <c r="U161" s="3"/>
+      <c r="V161" s="3"/>
+      <c r="W161" s="3"/>
+      <c r="X161" s="3"/>
+      <c r="Y161" s="3"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -5690,13 +7120,29 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="25"/>
-      <c r="I162" s="25"/>
-      <c r="J162" s="25"/>
-      <c r="K162" s="25"/>
-      <c r="L162" s="25"/>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="3"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="3"/>
+      <c r="P162" s="3"/>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3"/>
+      <c r="S162" s="3"/>
+      <c r="T162" s="3"/>
+      <c r="U162" s="3"/>
+      <c r="V162" s="3"/>
+      <c r="W162" s="3"/>
+      <c r="X162" s="3"/>
+      <c r="Y162" s="3"/>
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -5704,13 +7150,29 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="25"/>
-      <c r="I163" s="25"/>
-      <c r="J163" s="25"/>
-      <c r="K163" s="25"/>
-      <c r="L163" s="25"/>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="3"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="3"/>
+      <c r="P163" s="3"/>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3"/>
+      <c r="S163" s="3"/>
+      <c r="T163" s="3"/>
+      <c r="U163" s="3"/>
+      <c r="V163" s="3"/>
+      <c r="W163" s="3"/>
+      <c r="X163" s="3"/>
+      <c r="Y163" s="3"/>
+      <c r="Z163" s="3"/>
+      <c r="AA163" s="3"/>
+      <c r="AB163" s="3"/>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -5718,13 +7180,29 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="25"/>
-      <c r="I164" s="25"/>
-      <c r="J164" s="25"/>
-      <c r="K164" s="25"/>
-      <c r="L164" s="25"/>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="3"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="3"/>
+      <c r="P164" s="3"/>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3"/>
+      <c r="S164" s="3"/>
+      <c r="T164" s="3"/>
+      <c r="U164" s="3"/>
+      <c r="V164" s="3"/>
+      <c r="W164" s="3"/>
+      <c r="X164" s="3"/>
+      <c r="Y164" s="3"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5732,34 +7210,98 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="25"/>
-      <c r="I165" s="25"/>
-      <c r="J165" s="25"/>
-      <c r="K165" s="25"/>
-      <c r="L165" s="25"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="3"/>
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="3"/>
+      <c r="AB165" s="3"/>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+      <c r="G166" s="3"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="3"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="3"/>
+      <c r="P166" s="3"/>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3"/>
+      <c r="S166" s="3"/>
+      <c r="T166" s="3"/>
+      <c r="U166" s="3"/>
+      <c r="V166" s="3"/>
+      <c r="W166" s="3"/>
+      <c r="X166" s="3"/>
+      <c r="Y166" s="3"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:AB165" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A53:J152">
-    <sortCondition ref="A53:A152"/>
+  <autoFilter ref="A5:AB166" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:J153">
+    <sortCondition ref="A54:A153"/>
   </sortState>
   <mergeCells count="9">
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB5:AB78 M5:M78 P5:P78 S5:S78 V5:V78 Y5:Y78 D163:D165 G163:G165 G124:G158 D119:D158 G78:G112 D60:D112 H6 F23:G23 G24:G58 G60:G76 F77:G77 J66:J78 J5:J64 G114 D114 G120 G5:G22 D5:D58" xr:uid="{00000000-0002-0000-0300-000000000000}">
+  <conditionalFormatting sqref="A3:D3">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>$D$3=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$D$3=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:AB166">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D$3&lt;&gt;FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB6:AB79 M6:M79 P6:P79 S6:S79 V6:V79 Y6:Y79 D164:D166 G164:G166 G125:G159 D120:D159 G79:G113 D61:D113 H7 F24:G24 G25:G59 G61:G77 F78:G78 J67:J79 J6:J65 G115 D115 G121 G6:G23 D6:D59" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"Open,Close"</formula1>
     </dataValidation>
+    <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Empty" error="Cannot be empty, please enter either False or the name of an existing Load Flow Command to use (i.e. Load Flow Calculation.ComLdf)" sqref="D3" xr:uid="{02647C8E-7295-4C24-A15C-D1F697FC91FA}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5780,27 +7322,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="str">
+      <c r="A3" s="27" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="26" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5851,13 +7393,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5917,7 +7459,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5929,25 +7471,25 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -5983,13 +7525,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6019,7 +7561,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6037,7 +7579,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6049,7 +7591,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6067,7 +7609,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -6079,13 +7621,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -6097,19 +7639,19 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -6133,7 +7675,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="19"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -6151,7 +7693,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="19"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -6169,7 +7711,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="19"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -6217,19 +7759,19 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="19"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="19"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -6259,7 +7801,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="19"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -6271,7 +7813,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="19"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -6283,7 +7825,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="19"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -6307,7 +7849,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="19"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -6325,7 +7867,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
+      <c r="A89" s="19"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -6349,15 +7891,15 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
+      <c r="A93" s="19"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="19"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="25"/>
+      <c r="C94" s="19"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -6373,7 +7915,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
+      <c r="A97" s="19"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -6385,31 +7927,31 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="19"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="19"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
+      <c r="A101" s="19"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="19"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="19"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -6420,12 +7962,12 @@
     <sortCondition ref="A5:A8"/>
   </sortState>
   <conditionalFormatting sqref="A5:A103">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="15" priority="3">
       <formula>LEN(A5)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="14" priority="1">
       <formula>A3="NAMES OKAY"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6441,13 +7983,13 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
@@ -6461,16 +8003,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>196</v>
       </c>
       <c r="C4" t="s">
@@ -6487,10 +8029,10 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>177</v>
       </c>
       <c r="C5" t="s">
@@ -6501,8 +8043,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
       <c r="C6" t="s">
@@ -6513,8 +8055,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C7" t="s">
@@ -6525,8 +8067,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="6" t="s">
         <v>191</v>
       </c>
       <c r="C8" t="s">
@@ -6537,8 +8079,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="s">
@@ -6549,8 +8091,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="s">
@@ -6561,8 +8103,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="6" t="s">
         <v>91</v>
       </c>
       <c r="C11" t="s">
@@ -6573,8 +8115,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="6" t="s">
         <v>85</v>
       </c>
       <c r="C12" t="s">
@@ -6585,8 +8127,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C13" t="s">
@@ -6597,8 +8139,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="6" t="s">
         <v>87</v>
       </c>
       <c r="C14" t="s">
@@ -6609,8 +8151,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C15" t="s">
@@ -6621,10 +8163,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C16" t="s">
@@ -6635,8 +8177,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C17" t="s">
@@ -6647,8 +8189,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
       <c r="C18" t="s">
@@ -6659,20 +8201,20 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="10" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
       <c r="C20" t="s">
@@ -6683,10 +8225,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C21" t="s">
@@ -6697,8 +8239,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C22" t="s">
@@ -6709,8 +8251,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C23" t="s">
@@ -6721,8 +8263,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C24" t="s">
@@ -6733,8 +8275,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="12" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="6" t="s">
         <v>99</v>
       </c>
       <c r="C25" t="s">
@@ -6745,8 +8287,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C26" t="s">
@@ -6757,8 +8299,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="12" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C27" t="s">
@@ -6769,8 +8311,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="12" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -6781,8 +8323,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C29" t="s">
@@ -6793,8 +8335,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C30" t="s">
@@ -6805,8 +8347,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C31" t="s">
@@ -6817,10 +8359,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C32" t="s">
@@ -6831,8 +8373,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C33" t="s">
@@ -6843,8 +8385,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C34" t="s">
@@ -6855,8 +8397,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C35" t="s">
@@ -6867,8 +8409,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C36" t="s">
@@ -6879,8 +8421,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C37" t="s">
@@ -6891,8 +8433,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="12" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C38" t="s">
@@ -6903,8 +8445,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="12" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C39" t="s">
@@ -6915,10 +8457,10 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
+      <c r="A40" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C40" t="s">
@@ -6929,8 +8471,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="6" t="s">
         <v>115</v>
       </c>
       <c r="C41" t="s">
@@ -6941,8 +8483,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="12" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C42" t="s">
@@ -6953,8 +8495,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="12" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C43" t="s">
@@ -6965,8 +8507,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="12" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C44" t="s">
@@ -6977,8 +8519,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="12" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C45" t="s">
@@ -6989,8 +8531,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C46" t="s">
@@ -7001,20 +8543,20 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="10" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C48" t="s">
@@ -7025,22 +8567,22 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="10" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C50" t="s">
@@ -7051,8 +8593,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="12" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C51" t="s">
@@ -7063,8 +8605,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="12" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C52" t="s">
@@ -7075,10 +8617,10 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
+      <c r="A53" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C53" t="s">
@@ -7089,8 +8631,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="12" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C54" t="s">
@@ -7101,8 +8643,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="12" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C55" t="s">
@@ -7113,8 +8655,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="12" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C56" t="s">
@@ -7125,8 +8667,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C57" t="s">
@@ -7137,8 +8679,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="12" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="6" t="s">
         <v>132</v>
       </c>
       <c r="C58" t="s">
@@ -7149,10 +8691,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
+      <c r="A59" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C59" t="s">
@@ -7163,8 +8705,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="12" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C60" t="s">
@@ -7186,17 +8728,17 @@
     <mergeCell ref="A50:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D60">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7220,29 +8762,29 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="6" t="s">
         <v>211</v>
       </c>
       <c r="C4" t="s">
@@ -7253,22 +8795,22 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="6" t="s">
         <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="6" t="s">
         <v>157</v>
       </c>
       <c r="C6" t="s">
@@ -7279,32 +8821,32 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="6" t="s">
         <v>158</v>
       </c>
       <c r="C7" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="6" t="s">
         <v>159</v>
       </c>
       <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="6" t="s">
         <v>160</v>
       </c>
       <c r="C9" t="s">
@@ -7315,8 +8857,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="6" t="s">
         <v>161</v>
       </c>
       <c r="C10" t="s">
@@ -7327,10 +8869,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="6" t="s">
         <v>162</v>
       </c>
       <c r="C11" t="s">
@@ -7341,8 +8883,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="6" t="s">
         <v>163</v>
       </c>
       <c r="C12" t="s">
@@ -7353,8 +8895,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="6" t="s">
         <v>164</v>
       </c>
       <c r="C13" t="s">
@@ -7365,8 +8907,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="6" t="s">
         <v>165</v>
       </c>
       <c r="C14" t="s">
@@ -7382,17 +8924,17 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7409,26 +8951,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </iab7cdb7554d4997ae876b11632fa575>
-    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -7580,31 +9102,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <iab7cdb7554d4997ae876b11632fa575 xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </iab7cdb7554d4997ae876b11632fa575>
+    <TaxCatchAll xmlns="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7620,4 +9138,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72CE4E7-2AB4-4AB2-B08D-E39E60B95CDE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD719B77-35DA-4471-98FE-A68C5833616F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="2310" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
   <si>
     <t>Name</t>
   </si>
@@ -1010,6 +1010,24 @@
   </si>
   <si>
     <t>Name of existing contingency analysis command that includes details of all of the contingencies to be considered (Set to FALSE if not using)</t>
+  </si>
+  <si>
+    <t>TEST Cont</t>
+  </si>
+  <si>
+    <t>ALBURY 132KV</t>
+  </si>
+  <si>
+    <t>Switch_213211</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>LADBROKE GROVE 132KV</t>
+  </si>
+  <si>
+    <t>Switch_210309</t>
   </si>
 </sst>
 </file>
@@ -1381,6 +1399,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1405,65 +1429,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1514,6 +1486,23 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1963,9 +1952,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
@@ -2251,7 +2240,7 @@
   <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,143 +2273,143 @@
       <c r="C3" t="s">
         <v>217</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>216</v>
+      <c r="D3" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="30" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="31" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="31" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="31" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="31" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="31" t="s">
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="31" t="s">
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="32"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="31" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="31" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="42" t="s">
+      <c r="J5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="42" t="s">
+      <c r="O5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="42" t="s">
+      <c r="P5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="S5" s="42" t="s">
+      <c r="S5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="W5" s="43" t="s">
+      <c r="W5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="X5" s="42" t="s">
+      <c r="X5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="42" t="s">
+      <c r="Y5" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="Z5" s="43" t="s">
+      <c r="Z5" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="34" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2460,16 +2449,26 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>219</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -7279,17 +7278,17 @@
     <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$D$3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="9" priority="2">
       <formula>$D$3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:AB166">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7962,12 +7961,12 @@
     <sortCondition ref="A5:A8"/>
   </sortState>
   <conditionalFormatting sqref="A5:A103">
-    <cfRule type="expression" dxfId="15" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>LEN(A5)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>A3="NAMES OKAY"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8029,7 +8028,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>135</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8043,7 +8042,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
@@ -8055,7 +8054,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
         <v>90</v>
       </c>
@@ -8067,7 +8066,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
         <v>191</v>
       </c>
@@ -8079,7 +8078,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
         <v>83</v>
       </c>
@@ -8091,7 +8090,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
         <v>84</v>
       </c>
@@ -8103,7 +8102,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
         <v>91</v>
       </c>
@@ -8115,7 +8114,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>85</v>
       </c>
@@ -8127,7 +8126,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
         <v>86</v>
       </c>
@@ -8139,7 +8138,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
         <v>87</v>
       </c>
@@ -8151,7 +8150,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="6" t="s">
         <v>88</v>
       </c>
@@ -8163,7 +8162,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="43" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -8177,7 +8176,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6" t="s">
         <v>92</v>
       </c>
@@ -8189,7 +8188,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="6" t="s">
         <v>93</v>
       </c>
@@ -8201,7 +8200,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
         <v>188</v>
       </c>
@@ -8213,7 +8212,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="6" t="s">
         <v>94</v>
       </c>
@@ -8225,7 +8224,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="43" t="s">
         <v>137</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -8239,7 +8238,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
@@ -8251,7 +8250,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="6" t="s">
         <v>97</v>
       </c>
@@ -8263,7 +8262,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="6" t="s">
         <v>98</v>
       </c>
@@ -8275,7 +8274,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="6" t="s">
         <v>99</v>
       </c>
@@ -8287,7 +8286,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="6" t="s">
         <v>100</v>
       </c>
@@ -8299,7 +8298,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="6" t="s">
         <v>101</v>
       </c>
@@ -8311,7 +8310,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
         <v>102</v>
       </c>
@@ -8323,7 +8322,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
         <v>103</v>
       </c>
@@ -8335,7 +8334,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
         <v>104</v>
       </c>
@@ -8347,7 +8346,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
         <v>105</v>
       </c>
@@ -8359,7 +8358,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="43" t="s">
         <v>138</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -8373,7 +8372,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="6" t="s">
         <v>107</v>
       </c>
@@ -8385,7 +8384,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
         <v>108</v>
       </c>
@@ -8397,7 +8396,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
@@ -8409,7 +8408,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="6" t="s">
         <v>110</v>
       </c>
@@ -8421,7 +8420,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="6" t="s">
         <v>111</v>
       </c>
@@ -8433,7 +8432,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="6" t="s">
         <v>112</v>
       </c>
@@ -8445,7 +8444,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="6" t="s">
         <v>113</v>
       </c>
@@ -8457,7 +8456,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="43" t="s">
         <v>139</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8471,7 +8470,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="6" t="s">
         <v>115</v>
       </c>
@@ -8483,7 +8482,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="6" t="s">
         <v>116</v>
       </c>
@@ -8495,7 +8494,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="6" t="s">
         <v>117</v>
       </c>
@@ -8507,7 +8506,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
         <v>118</v>
       </c>
@@ -8519,7 +8518,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="6" t="s">
         <v>119</v>
       </c>
@@ -8531,7 +8530,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="6" t="s">
         <v>120</v>
       </c>
@@ -8543,7 +8542,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
         <v>121</v>
       </c>
@@ -8555,7 +8554,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
         <v>122</v>
       </c>
@@ -8567,7 +8566,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="37"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="9" t="s">
         <v>123</v>
       </c>
@@ -8579,7 +8578,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="43" t="s">
         <v>140</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -8593,7 +8592,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="37"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="6" t="s">
         <v>125</v>
       </c>
@@ -8605,7 +8604,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="6" t="s">
         <v>126</v>
       </c>
@@ -8617,7 +8616,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="43" t="s">
         <v>141</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8631,7 +8630,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="37"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="6" t="s">
         <v>128</v>
       </c>
@@ -8643,7 +8642,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="37"/>
+      <c r="A55" s="43"/>
       <c r="B55" s="6" t="s">
         <v>129</v>
       </c>
@@ -8655,7 +8654,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="37"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="6" t="s">
         <v>130</v>
       </c>
@@ -8667,7 +8666,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="37"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="6" t="s">
         <v>131</v>
       </c>
@@ -8679,7 +8678,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="37"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="6" t="s">
         <v>132</v>
       </c>
@@ -8691,7 +8690,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="43" t="s">
         <v>142</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -8705,7 +8704,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="37"/>
+      <c r="A60" s="43"/>
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
@@ -8728,17 +8727,17 @@
     <mergeCell ref="A50:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D60">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8795,7 +8794,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="43" t="s">
         <v>145</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8809,7 +8808,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
         <v>157</v>
       </c>
@@ -8821,7 +8820,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
         <v>158</v>
       </c>
@@ -8833,7 +8832,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
         <v>159</v>
       </c>
@@ -8845,7 +8844,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
         <v>160</v>
       </c>
@@ -8857,7 +8856,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
         <v>161</v>
       </c>
@@ -8869,7 +8868,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="43" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -8883,7 +8882,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
         <v>163</v>
       </c>
@@ -8895,7 +8894,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
         <v>164</v>
       </c>
@@ -8907,7 +8906,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
         <v>165</v>
       </c>
@@ -8924,17 +8923,17 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8951,6 +8950,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9102,15 +9110,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9123,6 +9122,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9136,14 +9143,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD719B77-35DA-4471-98FE-A68C5833616F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6DB8F-3C92-4425-805A-5779BE6D7773}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="233">
   <si>
     <t>Name</t>
   </si>
@@ -1028,6 +1028,30 @@
   </si>
   <si>
     <t>Switch_210309</t>
+  </si>
+  <si>
+    <t>TEST Cont NC</t>
+  </si>
+  <si>
+    <t>Switch_210264</t>
+  </si>
+  <si>
+    <t>Switch_3045571</t>
+  </si>
+  <si>
+    <t>KERANG 220KV</t>
+  </si>
+  <si>
+    <t>Switch_3931660</t>
+  </si>
+  <si>
+    <t>WEMEN</t>
+  </si>
+  <si>
+    <t>Switch_2479911</t>
+  </si>
+  <si>
+    <t>BALRANALD 220/22KV SUBSTATION</t>
   </si>
 </sst>
 </file>
@@ -2240,7 +2264,7 @@
   <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2492,19 +2516,45 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -8950,15 +9000,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9110,6 +9151,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9122,14 +9172,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9143,6 +9185,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C6DB8F-3C92-4425-805A-5779BE6D7773}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D5D72F-06CA-4BD9-BF11-97931A8D93D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -895,9 +895,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>220 kV A1</t>
-  </si>
-  <si>
     <t>Base_Case</t>
   </si>
   <si>
@@ -922,12 +919,6 @@
     <t>Reference Busbar (NetElements\Substation\Terminal)</t>
   </si>
   <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Dunstown</t>
-  </si>
-  <si>
     <t>Automatic Tap Adjustment of Phase Shifters</t>
   </si>
   <si>
@@ -1052,6 +1043,21 @@
   </si>
   <si>
     <t>BALRANALD 220/22KV SUBSTATION</t>
+  </si>
+  <si>
+    <t>CRANBOURNE 220KV</t>
+  </si>
+  <si>
+    <t>2958760_CBTS_7MN2</t>
+  </si>
+  <si>
+    <t>2958762_CBTS_7TB2</t>
+  </si>
+  <si>
+    <t>DEDERANG 330KV</t>
+  </si>
+  <si>
+    <t>1938572_DDTS_5C2</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1465,21 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1880,7 +1900,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1910,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1932,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="4">
         <v>43954</v>
@@ -1972,7 +1992,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1987,32 +2007,32 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>178</v>
@@ -2042,13 +2062,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B10" s="14" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2129,30 +2149,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2263,7 +2283,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -2289,13 +2309,13 @@
     </row>
     <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -2303,7 +2323,7 @@
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>9</v>
@@ -2439,7 +2459,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2473,25 +2493,25 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -2517,43 +2537,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>231</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -7328,17 +7348,17 @@
     <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>$D$3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$D$3=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:AB166">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7359,7 +7379,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -7392,18 +7412,18 @@
         <v>20</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>180</v>
+        <v>231</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7411,23 +7431,31 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -8010,14 +8038,24 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A8">
     <sortCondition ref="A5:A8"/>
   </sortState>
-  <conditionalFormatting sqref="A5:A103">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="A5:A6 A8:A103">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>LEN(A5)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="8" priority="3">
       <formula>A3="NAMES OKAY"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>LEN(A7)&gt;19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>LEN(B7)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8059,16 +8097,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8118,10 +8156,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8252,13 +8290,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8777,17 +8815,17 @@
     <mergeCell ref="A50:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D60">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="6" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8831,16 +8869,16 @@
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
         <v>210</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8851,7 +8889,7 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -8973,17 +9011,17 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9000,6 +9038,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9151,15 +9198,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9172,6 +9210,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9185,14 +9231,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D5D72F-06CA-4BD9-BF11-97931A8D93D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CE4EA-9BEE-4F14-AD37-884EF4E9874D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="239">
   <si>
     <t>Name</t>
   </si>
@@ -895,169 +895,181 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Mutual</t>
+  </si>
+  <si>
+    <t>David Mills (PSC)</t>
+  </si>
+  <si>
+    <t>D:\Users\david\Desktop\</t>
+  </si>
+  <si>
+    <t>True = Export the results to Excel (Can be done later)</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>EirGrid\Turlough Hill\220 kV T2001/2 TCB</t>
+  </si>
+  <si>
+    <t>Reference Busbar (NetElements\Substation\Terminal)</t>
+  </si>
+  <si>
+    <t>Automatic Tap Adjustment of Phase Shifters</t>
+  </si>
+  <si>
+    <t>ldf.iPST_at</t>
+  </si>
+  <si>
+    <t>Study Case Load Flow Settings</t>
+  </si>
+  <si>
+    <t>.ComLdf</t>
+  </si>
+  <si>
+    <t>Load Flow Calculation</t>
+  </si>
+  <si>
+    <t>Name of load flow settings to be used for studycase (leave empty to use settings below)</t>
+  </si>
+  <si>
+    <t>PSC Harmonics Input Spreadsheet</t>
+  </si>
+  <si>
+    <t>This is used to carry out multiple frequency scans of a system using PowerFactory</t>
+  </si>
+  <si>
+    <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI and if blank uses the current working directory ie where the script is stored.</t>
+  </si>
+  <si>
+    <t>This sheet can be populated with settings to control some of the inputs and exports from the study that is about to be run. Some of these settings are configurable as part of the GUI</t>
+  </si>
+  <si>
+    <t>Name of exported excel result file (unique time and date of the study is appended to end).</t>
+  </si>
+  <si>
+    <t>Results_Export_Folder</t>
+  </si>
+  <si>
+    <t>Excel_Results</t>
+  </si>
+  <si>
+    <t>Net_Elm</t>
+  </si>
+  <si>
+    <t>Export_to_Excel</t>
+  </si>
+  <si>
+    <t>NSW.ElmNet</t>
+  </si>
+  <si>
+    <t>High Load Case</t>
+  </si>
+  <si>
+    <t>HighLoadTap_testing</t>
+  </si>
+  <si>
+    <t>pscharmonics_test_model</t>
+  </si>
+  <si>
+    <t>Study Case Frequency Sweep</t>
+  </si>
+  <si>
+    <t>Name of frequency scan settings to be used for studycase (leave empty to use settings below)</t>
+  </si>
+  <si>
+    <t>frq.fnom</t>
+  </si>
+  <si>
+    <t>ComFsweep</t>
+  </si>
+  <si>
+    <t>Frequency Sweep</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Contingency Analysis</t>
+  </si>
+  <si>
+    <t>.ComSimoutage</t>
+  </si>
+  <si>
+    <t>Name of existing contingency analysis command that includes details of all of the contingencies to be considered (Set to FALSE if not using)</t>
+  </si>
+  <si>
+    <t>TEST Cont</t>
+  </si>
+  <si>
+    <t>ALBURY 132KV</t>
+  </si>
+  <si>
+    <t>Switch_213211</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>LADBROKE GROVE 132KV</t>
+  </si>
+  <si>
+    <t>Switch_210309</t>
+  </si>
+  <si>
+    <t>TEST Cont NC</t>
+  </si>
+  <si>
+    <t>Switch_210264</t>
+  </si>
+  <si>
+    <t>Switch_3045571</t>
+  </si>
+  <si>
+    <t>KERANG 220KV</t>
+  </si>
+  <si>
+    <t>Switch_3931660</t>
+  </si>
+  <si>
+    <t>WEMEN</t>
+  </si>
+  <si>
+    <t>Switch_2479911</t>
+  </si>
+  <si>
+    <t>BALRANALD 220/22KV SUBSTATION</t>
+  </si>
+  <si>
+    <t>CRANBOURNE 220KV</t>
+  </si>
+  <si>
+    <t>2958760_CBTS_7MN2</t>
+  </si>
+  <si>
+    <t>2958762_CBTS_7TB2</t>
+  </si>
+  <si>
+    <t>DEDERANG 330KV</t>
+  </si>
+  <si>
+    <t>1938572_DDTS_5C2</t>
+  </si>
+  <si>
+    <t>LADBROKE GROVE</t>
+  </si>
+  <si>
+    <t>375520_LADB_G_1T1</t>
+  </si>
+  <si>
     <t>Base_Case</t>
   </si>
   <si>
-    <t>Mutual</t>
-  </si>
-  <si>
-    <t>David Mills (PSC)</t>
-  </si>
-  <si>
-    <t>D:\Users\david\Desktop\</t>
-  </si>
-  <si>
-    <t>True = Export the results to Excel (Can be done later)</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>EirGrid\Turlough Hill\220 kV T2001/2 TCB</t>
-  </si>
-  <si>
-    <t>Reference Busbar (NetElements\Substation\Terminal)</t>
-  </si>
-  <si>
-    <t>Automatic Tap Adjustment of Phase Shifters</t>
-  </si>
-  <si>
-    <t>ldf.iPST_at</t>
-  </si>
-  <si>
-    <t>Study Case Load Flow Settings</t>
-  </si>
-  <si>
-    <t>.ComLdf</t>
-  </si>
-  <si>
-    <t>Load Flow Calculation</t>
-  </si>
-  <si>
-    <t>Name of load flow settings to be used for studycase (leave empty to use settings below)</t>
-  </si>
-  <si>
-    <t>PSC Harmonics Input Spreadsheet</t>
-  </si>
-  <si>
-    <t>This is used to carry out multiple frequency scans of a system using PowerFactory</t>
-  </si>
-  <si>
-    <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI and if blank uses the current working directory ie where the script is stored.</t>
-  </si>
-  <si>
-    <t>This sheet can be populated with settings to control some of the inputs and exports from the study that is about to be run. Some of these settings are configurable as part of the GUI</t>
-  </si>
-  <si>
-    <t>Name of exported excel result file (unique time and date of the study is appended to end).</t>
-  </si>
-  <si>
-    <t>Results_Export_Folder</t>
-  </si>
-  <si>
-    <t>Excel_Results</t>
-  </si>
-  <si>
-    <t>Net_Elm</t>
-  </si>
-  <si>
-    <t>Export_to_Excel</t>
-  </si>
-  <si>
-    <t>NSW.ElmNet</t>
-  </si>
-  <si>
-    <t>High Load Case</t>
-  </si>
-  <si>
-    <t>HighLoadTap_testing</t>
-  </si>
-  <si>
-    <t>pscharmonics_test_model</t>
-  </si>
-  <si>
-    <t>Study Case Frequency Sweep</t>
-  </si>
-  <si>
-    <t>Name of frequency scan settings to be used for studycase (leave empty to use settings below)</t>
-  </si>
-  <si>
-    <t>frq.fnom</t>
-  </si>
-  <si>
-    <t>ComFsweep</t>
-  </si>
-  <si>
-    <t>Frequency Sweep</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Contingency Analysis</t>
-  </si>
-  <si>
-    <t>.ComSimoutage</t>
-  </si>
-  <si>
-    <t>Name of existing contingency analysis command that includes details of all of the contingencies to be considered (Set to FALSE if not using)</t>
-  </si>
-  <si>
-    <t>TEST Cont</t>
-  </si>
-  <si>
-    <t>ALBURY 132KV</t>
-  </si>
-  <si>
-    <t>Switch_213211</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>LADBROKE GROVE 132KV</t>
-  </si>
-  <si>
-    <t>Switch_210309</t>
-  </si>
-  <si>
-    <t>TEST Cont NC</t>
-  </si>
-  <si>
-    <t>Switch_210264</t>
-  </si>
-  <si>
-    <t>Switch_3045571</t>
-  </si>
-  <si>
-    <t>KERANG 220KV</t>
-  </si>
-  <si>
-    <t>Switch_3931660</t>
-  </si>
-  <si>
-    <t>WEMEN</t>
-  </si>
-  <si>
-    <t>Switch_2479911</t>
-  </si>
-  <si>
-    <t>BALRANALD 220/22KV SUBSTATION</t>
-  </si>
-  <si>
-    <t>CRANBOURNE 220KV</t>
-  </si>
-  <si>
-    <t>2958760_CBTS_7MN2</t>
-  </si>
-  <si>
-    <t>2958762_CBTS_7TB2</t>
-  </si>
-  <si>
-    <t>DEDERANG 330KV</t>
-  </si>
-  <si>
-    <t>1938572_DDTS_5C2</t>
+    <t>Include_Intact</t>
+  </si>
+  <si>
+    <t>True = Will include an additional result for the intact system</t>
   </si>
 </sst>
 </file>
@@ -1467,20 +1479,6 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
       </font>
@@ -1513,6 +1511,20 @@
       <font>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1900,7 +1912,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1910,7 +1922,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C7" s="4">
         <v>43954</v>
@@ -1971,10 +1983,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +2004,7 @@
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,32 +2019,32 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>178</v>
@@ -2062,13 +2074,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="14" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2091,6 +2103,17 @@
       </c>
       <c r="C12" s="13" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2149,30 +2172,30 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>204</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2284,7 +2307,7 @@
   <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,13 +2332,13 @@
     </row>
     <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
         <v>213</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" t="s">
-        <v>214</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -2323,7 +2346,7 @@
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>9</v>
@@ -2459,7 +2482,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>236</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2493,25 +2516,25 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -2537,43 +2560,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="J8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="I8" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>228</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -7379,8 +7402,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7412,18 +7435,18 @@
         <v>20</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7431,13 +7454,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -7445,23 +7468,31 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>234</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -8049,12 +8080,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>LEN(A7)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>LEN(B7)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8097,16 +8128,16 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" t="s">
         <v>190</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8156,10 +8187,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" t="s">
         <v>188</v>
-      </c>
-      <c r="C8" t="s">
-        <v>189</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8290,13 +8321,13 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -8815,17 +8846,17 @@
     <mergeCell ref="A50:A52"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D60">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8869,16 +8900,16 @@
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -8889,7 +8920,7 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -9011,17 +9042,17 @@
     <mergeCell ref="A5:A10"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CE4EA-9BEE-4F14-AD37-884EF4E9874D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36F7E4-413E-45C5-8030-2DA904CB4A23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="235">
   <si>
     <t>Name</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Created</t>
   </si>
   <si>
-    <t>v1</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -859,9 +856,6 @@
     <t>ldf</t>
   </si>
   <si>
-    <t>Recommended Settings</t>
-  </si>
-  <si>
     <t>Pre_Case_Check</t>
   </si>
   <si>
@@ -889,9 +883,6 @@
     <t>Calculation method (0 Balanced AC, 1 Unbalanced AC, 2 DC)</t>
   </si>
   <si>
-    <t>The name of the network elements in PowerFactory. Note this is Case sensitive.</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -955,15 +946,9 @@
     <t>Excel_Results</t>
   </si>
   <si>
-    <t>Net_Elm</t>
-  </si>
-  <si>
     <t>Export_to_Excel</t>
   </si>
   <si>
-    <t>NSW.ElmNet</t>
-  </si>
-  <si>
     <t>High Load Case</t>
   </si>
   <si>
@@ -1070,6 +1055,9 @@
   </si>
   <si>
     <t>True = Will include an additional result for the intact system</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1386,7 +1374,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1471,6 +1459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1900,7 +1889,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1912,7 +1901,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1922,7 +1911,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1944,13 +1933,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4">
-        <v>43954</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
+        <v>43977</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1983,10 +1972,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,12 +1988,12 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2012,108 +2001,92 @@
       <c r="E3" s="36"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>178</v>
+        <v>167</v>
+      </c>
+      <c r="B7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>201</v>
       </c>
       <c r="B10" s="14" t="b">
         <v>1</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>171</v>
+      <c r="A11" s="15" t="s">
+        <v>170</v>
       </c>
       <c r="B11" s="14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B12" s="14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2094,7 @@
     <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"True,False"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2149,7 +2122,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2161,41 +2134,41 @@
         <v>0</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="23" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2324,7 +2297,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
@@ -2332,13 +2305,13 @@
     </row>
     <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
@@ -2346,50 +2319,50 @@
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="42"/>
       <c r="E4" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="39"/>
       <c r="H4" s="37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="38"/>
       <c r="J4" s="39"/>
       <c r="K4" s="37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="38"/>
       <c r="M4" s="39"/>
       <c r="N4" s="37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O4" s="38"/>
       <c r="P4" s="39"/>
       <c r="Q4" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R4" s="38"/>
       <c r="S4" s="39"/>
       <c r="T4" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U4" s="38"/>
       <c r="V4" s="39"/>
       <c r="W4" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X4" s="38"/>
       <c r="Y4" s="39"/>
       <c r="Z4" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA4" s="38"/>
       <c r="AB4" s="39"/>
@@ -2399,90 +2372,90 @@
         <v>0</v>
       </c>
       <c r="B5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="P5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="R5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="R5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="S5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="T5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="V5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="W5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="X5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="Y5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="Z5" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="AB5" s="34" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2516,25 +2489,25 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>220</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
@@ -2560,43 +2533,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="I8" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -7415,7 +7388,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,24 +7402,24 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7454,13 +7427,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -7468,13 +7441,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -7482,13 +7455,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -8122,22 +8095,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8148,13 +8121,13 @@
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -8163,10 +8136,10 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8175,10 +8148,10 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8187,10 +8160,10 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -8199,10 +8172,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8211,10 +8184,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8223,10 +8196,10 @@
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -8235,10 +8208,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -8247,10 +8220,10 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -8259,10 +8232,10 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -8271,10 +8244,10 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -8282,13 +8255,13 @@
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -8297,10 +8270,10 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -8309,10 +8282,10 @@
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -8321,22 +8294,22 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -8344,13 +8317,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -8359,10 +8332,10 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -8371,10 +8344,10 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -8383,10 +8356,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -8395,10 +8368,10 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <v>20</v>
@@ -8407,10 +8380,10 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -8419,10 +8392,10 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -8431,10 +8404,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -8443,10 +8416,10 @@
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -8455,10 +8428,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -8467,10 +8440,10 @@
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -8478,13 +8451,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32">
         <v>100</v>
@@ -8493,10 +8466,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>80</v>
@@ -8505,10 +8478,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -8517,10 +8490,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>10000</v>
@@ -8529,10 +8502,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36">
         <v>10</v>
@@ -8541,10 +8514,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -8553,10 +8526,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -8565,10 +8538,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -8576,13 +8549,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -8591,10 +8564,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -8603,10 +8576,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -8615,10 +8588,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -8627,10 +8600,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D44">
         <v>110</v>
@@ -8639,10 +8612,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D45">
         <v>0.9</v>
@@ -8651,10 +8624,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46">
         <v>1.1200000000000001</v>
@@ -8663,22 +8636,22 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -8687,24 +8660,24 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50">
         <v>100</v>
@@ -8713,10 +8686,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51">
         <v>100</v>
@@ -8725,10 +8698,10 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D52">
         <v>100</v>
@@ -8736,13 +8709,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -8751,10 +8724,10 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54">
         <v>0.9</v>
@@ -8763,10 +8736,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55">
         <v>12</v>
@@ -8775,10 +8748,10 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56">
         <v>0.95</v>
@@ -8787,10 +8760,10 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>0.1</v>
@@ -8799,10 +8772,10 @@
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -8810,13 +8783,13 @@
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -8825,10 +8798,10 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -8894,33 +8867,33 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
@@ -8929,10 +8902,10 @@
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8941,10 +8914,10 @@
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="8">
         <v>50</v>
@@ -8953,10 +8926,10 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="8">
         <v>500</v>
@@ -8965,10 +8938,10 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>50</v>
@@ -8977,10 +8950,10 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8988,13 +8961,13 @@
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11">
         <v>0.01</v>
@@ -9003,10 +8976,10 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12">
         <v>5.0000000000000001E-3</v>
@@ -9015,10 +8988,10 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -9027,10 +9000,10 @@
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9069,15 +9042,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9229,6 +9193,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9241,14 +9214,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9262,6 +9227,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36F7E4-413E-45C5-8030-2DA904CB4A23}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A922F-BB3E-41F0-A9BE-0D7787F49D27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28365" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -1435,6 +1435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1459,7 +1460,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1938,7 +1938,7 @@
       <c r="C7" s="4">
         <v>43977</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="36" t="s">
         <v>234</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -1997,9 +1997,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
@@ -2279,8 +2279,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,51 +2321,51 @@
       <c r="A4" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37" t="s">
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="37" t="s">
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="37" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="37" t="s">
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="37" t="s">
+      <c r="R4" s="39"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="37" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="37" t="s">
+      <c r="X4" s="39"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="40"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
@@ -8120,7 +8120,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8134,7 +8134,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6" t="s">
         <v>81</v>
       </c>
@@ -8146,7 +8146,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>89</v>
       </c>
@@ -8158,7 +8158,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>184</v>
       </c>
@@ -8170,7 +8170,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>82</v>
       </c>
@@ -8182,7 +8182,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>83</v>
       </c>
@@ -8194,7 +8194,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="6" t="s">
         <v>90</v>
       </c>
@@ -8206,7 +8206,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>84</v>
       </c>
@@ -8218,7 +8218,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>85</v>
       </c>
@@ -8230,7 +8230,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>86</v>
       </c>
@@ -8242,7 +8242,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="6" t="s">
         <v>87</v>
       </c>
@@ -8254,7 +8254,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="44" t="s">
         <v>135</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -8268,7 +8268,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="6" t="s">
         <v>91</v>
       </c>
@@ -8280,7 +8280,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="6" t="s">
         <v>92</v>
       </c>
@@ -8292,7 +8292,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="9" t="s">
         <v>183</v>
       </c>
@@ -8304,7 +8304,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="6" t="s">
         <v>93</v>
       </c>
@@ -8316,7 +8316,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="44" t="s">
         <v>136</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -8330,7 +8330,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="6" t="s">
         <v>95</v>
       </c>
@@ -8342,7 +8342,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="6" t="s">
         <v>96</v>
       </c>
@@ -8354,7 +8354,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="6" t="s">
         <v>97</v>
       </c>
@@ -8366,7 +8366,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="6" t="s">
         <v>98</v>
       </c>
@@ -8378,7 +8378,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="6" t="s">
         <v>99</v>
       </c>
@@ -8390,7 +8390,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="6" t="s">
         <v>100</v>
       </c>
@@ -8402,7 +8402,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="6" t="s">
         <v>101</v>
       </c>
@@ -8414,7 +8414,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="6" t="s">
         <v>102</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="6" t="s">
         <v>103</v>
       </c>
@@ -8438,7 +8438,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="6" t="s">
         <v>104</v>
       </c>
@@ -8450,7 +8450,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="44" t="s">
         <v>137</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -8464,7 +8464,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="6" t="s">
         <v>106</v>
       </c>
@@ -8476,7 +8476,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="6" t="s">
         <v>107</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="6" t="s">
         <v>108</v>
       </c>
@@ -8500,7 +8500,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="6" t="s">
         <v>109</v>
       </c>
@@ -8512,7 +8512,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="6" t="s">
         <v>110</v>
       </c>
@@ -8524,7 +8524,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="6" t="s">
         <v>111</v>
       </c>
@@ -8536,7 +8536,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="6" t="s">
         <v>112</v>
       </c>
@@ -8548,7 +8548,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="44" t="s">
         <v>138</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -8562,7 +8562,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="6" t="s">
         <v>114</v>
       </c>
@@ -8574,7 +8574,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="6" t="s">
         <v>115</v>
       </c>
@@ -8586,7 +8586,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="6" t="s">
         <v>116</v>
       </c>
@@ -8598,7 +8598,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="6" t="s">
         <v>117</v>
       </c>
@@ -8610,7 +8610,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="6" t="s">
         <v>118</v>
       </c>
@@ -8622,7 +8622,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="6" t="s">
         <v>119</v>
       </c>
@@ -8634,7 +8634,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="44"/>
       <c r="B47" s="9" t="s">
         <v>120</v>
       </c>
@@ -8646,7 +8646,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43"/>
+      <c r="A48" s="44"/>
       <c r="B48" s="6" t="s">
         <v>121</v>
       </c>
@@ -8658,7 +8658,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="44"/>
       <c r="B49" s="9" t="s">
         <v>122</v>
       </c>
@@ -8670,7 +8670,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="44" t="s">
         <v>139</v>
       </c>
       <c r="B50" s="6" t="s">
@@ -8684,7 +8684,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43"/>
+      <c r="A51" s="44"/>
       <c r="B51" s="6" t="s">
         <v>124</v>
       </c>
@@ -8696,7 +8696,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
+      <c r="A52" s="44"/>
       <c r="B52" s="6" t="s">
         <v>125</v>
       </c>
@@ -8708,7 +8708,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="44" t="s">
         <v>140</v>
       </c>
       <c r="B53" s="6" t="s">
@@ -8722,7 +8722,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
+      <c r="A54" s="44"/>
       <c r="B54" s="6" t="s">
         <v>127</v>
       </c>
@@ -8734,7 +8734,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
+      <c r="A55" s="44"/>
       <c r="B55" s="6" t="s">
         <v>128</v>
       </c>
@@ -8746,7 +8746,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
+      <c r="A56" s="44"/>
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
@@ -8758,7 +8758,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="43"/>
+      <c r="A57" s="44"/>
       <c r="B57" s="6" t="s">
         <v>130</v>
       </c>
@@ -8770,7 +8770,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
+      <c r="A58" s="44"/>
       <c r="B58" s="6" t="s">
         <v>131</v>
       </c>
@@ -8782,7 +8782,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="44" t="s">
         <v>141</v>
       </c>
       <c r="B59" s="6" t="s">
@@ -8796,7 +8796,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="44"/>
       <c r="B60" s="6" t="s">
         <v>133</v>
       </c>
@@ -8886,7 +8886,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>144</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -8900,7 +8900,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="6" t="s">
         <v>156</v>
       </c>
@@ -8912,7 +8912,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="6" t="s">
         <v>157</v>
       </c>
@@ -8924,7 +8924,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="6" t="s">
         <v>158</v>
       </c>
@@ -8936,7 +8936,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="6" t="s">
         <v>159</v>
       </c>
@@ -8948,7 +8948,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="6" t="s">
         <v>160</v>
       </c>
@@ -8960,7 +8960,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="44" t="s">
         <v>145</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -8974,7 +8974,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="6" t="s">
         <v>162</v>
       </c>
@@ -8986,7 +8986,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="6" t="s">
         <v>163</v>
       </c>
@@ -8998,7 +8998,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="6" t="s">
         <v>164</v>
       </c>
@@ -9042,6 +9042,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9193,15 +9202,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9214,6 +9214,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9227,14 +9235,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A922F-BB3E-41F0-A9BE-0D7787F49D27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5739D19-C6A3-4E6F-A23F-59B1568FF27F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28365" yWindow="1350" windowWidth="21600" windowHeight="11385" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="228">
   <si>
     <t>Name</t>
   </si>
@@ -559,9 +559,6 @@
     <t xml:space="preserve">	ldf.vlmax </t>
   </si>
   <si>
-    <t xml:space="preserve">	#ldf.outcmd </t>
-  </si>
-  <si>
     <t xml:space="preserve">	ldf.iopt_chctr </t>
   </si>
   <si>
@@ -715,15 +712,9 @@
     <t>Upper Limit of Allowed Voltage</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Check Control Conditions</t>
   </si>
   <si>
-    <t>Command</t>
-  </si>
-  <si>
     <t>Load Scaling Factor</t>
   </si>
   <si>
@@ -784,9 +775,6 @@
     <t xml:space="preserve">ldf.rembar </t>
   </si>
   <si>
-    <t xml:space="preserve">ldf.chkcmd </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Basic</t>
   </si>
   <si>
@@ -850,12 +838,6 @@
     <t>Calculate R, X at output frequency for all nodes</t>
   </si>
   <si>
-    <t>cmd</t>
-  </si>
-  <si>
-    <t>ldf</t>
-  </si>
-  <si>
     <t>Pre_Case_Check</t>
   </si>
   <si>
@@ -899,9 +881,6 @@
   </si>
   <si>
     <t>BASE</t>
-  </si>
-  <si>
-    <t>EirGrid\Turlough Hill\220 kV T2001/2 TCB</t>
   </si>
   <si>
     <t>Reference Busbar (NetElements\Substation\Terminal)</t>
@@ -1392,7 +1371,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1460,6 +1438,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1901,7 +1880,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,7 +1890,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1932,14 +1911,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>178</v>
+      <c r="B7" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="C7" s="4">
         <v>43977</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>234</v>
+      <c r="D7" s="35" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,15 +1929,15 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="4"/>
     </row>
   </sheetData>
@@ -1992,101 +1971,101 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
-        <v>193</v>
+      <c r="A2" s="28" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>192</v>
+      <c r="A5" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>194</v>
+      <c r="C6" s="15" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="14" t="b">
+      <c r="A7" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>171</v>
+      <c r="C7" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="14" t="b">
+      <c r="A8" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>172</v>
+      <c r="C8" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="14" t="b">
+      <c r="A9" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>180</v>
+      <c r="C9" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="14" t="b">
+        <v>163</v>
+      </c>
+      <c r="B10" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>173</v>
+      <c r="C10" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B11" s="14" t="b">
+      <c r="A11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>174</v>
+      <c r="C11" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="14" t="b">
+      <c r="A12" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>233</v>
+      <c r="C12" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2130,140 +2109,140 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>199</v>
+        <v>175</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="24"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
@@ -2279,7 +2258,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
@@ -2304,158 +2283,158 @@
       <c r="A2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>207</v>
+      <c r="A3" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="38" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="38" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="38" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="38" t="s">
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="38" t="s">
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="39"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="38" t="s">
+      <c r="R4" s="38"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="38" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="38" t="s">
+      <c r="X4" s="38"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="40"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="35" t="s">
+      <c r="G5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="K5" s="35" t="s">
+      <c r="J5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="34" t="s">
+      <c r="L5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="N5" s="35" t="s">
+      <c r="M5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="N5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="35" t="s">
+      <c r="P5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="T5" s="35" t="s">
+      <c r="S5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="T5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="W5" s="35" t="s">
+      <c r="V5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="W5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Y5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z5" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="34" t="s">
-        <v>176</v>
+      <c r="AB5" s="33" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2489,31 +2468,31 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
+        <v>206</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2533,43 +2512,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K8" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>220</v>
-      </c>
-      <c r="J8" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="L8" s="19" t="s">
-        <v>222</v>
+      <c r="L8" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2595,11 +2574,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2625,11 +2604,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2655,11 +2634,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2685,11 +2664,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2715,11 +2694,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2745,11 +2724,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2775,11 +2754,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2805,11 +2784,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2835,11 +2814,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2865,11 +2844,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2895,11 +2874,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2925,11 +2904,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2955,11 +2934,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2985,11 +2964,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -3015,11 +2994,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3045,11 +3024,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3075,11 +3054,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3105,11 +3084,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -3135,11 +3114,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -3165,11 +3144,11 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3195,11 +3174,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3225,11 +3204,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3255,11 +3234,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3285,11 +3264,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3315,11 +3294,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3345,11 +3324,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3375,11 +3354,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3405,11 +3384,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3435,11 +3414,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3465,11 +3444,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3495,11 +3474,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3525,11 +3504,11 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3555,11 +3534,11 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3585,11 +3564,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3615,11 +3594,11 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3645,11 +3624,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3675,11 +3654,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3705,11 +3684,11 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3735,11 +3714,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3765,11 +3744,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3795,11 +3774,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="19"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3825,11 +3804,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3855,11 +3834,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3885,11 +3864,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -3915,11 +3894,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -3945,11 +3924,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -3975,11 +3954,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -4005,11 +3984,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4035,11 +4014,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4065,11 +4044,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4095,11 +4074,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4125,11 +4104,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4155,11 +4134,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4185,11 +4164,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4215,11 +4194,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -4245,11 +4224,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -4275,11 +4254,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -4305,11 +4284,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -4335,11 +4314,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -4365,11 +4344,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -4395,11 +4374,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4425,11 +4404,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4455,11 +4434,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4485,11 +4464,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4515,11 +4494,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="19"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4545,11 +4524,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="19"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4575,11 +4554,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -4605,11 +4584,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -4635,11 +4614,11 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="19"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -4665,11 +4644,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -4695,11 +4674,11 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -4725,11 +4704,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -4755,11 +4734,11 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -4785,11 +4764,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -4815,11 +4794,11 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -4845,11 +4824,11 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -4875,11 +4854,11 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="19"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -4905,11 +4884,11 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="19"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -4935,11 +4914,11 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="19"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -4965,11 +4944,11 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="19"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -4995,11 +4974,11 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="19"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -5025,11 +5004,11 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="19"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -5055,11 +5034,11 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -5085,11 +5064,11 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -5115,11 +5094,11 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="19"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -5145,11 +5124,11 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="19"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -5175,11 +5154,11 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="19"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -5205,11 +5184,11 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="19"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -5235,11 +5214,11 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="19"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -5265,11 +5244,11 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="19"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -5295,11 +5274,11 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -5325,11 +5304,11 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="19"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -5355,11 +5334,11 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="19"/>
-      <c r="L101" s="19"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -5385,11 +5364,11 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
-      <c r="K102" s="19"/>
-      <c r="L102" s="19"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -5415,11 +5394,11 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -5445,11 +5424,11 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -5475,11 +5454,11 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
-      <c r="K105" s="19"/>
-      <c r="L105" s="19"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -5505,11 +5484,11 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="19"/>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
-      <c r="K106" s="19"/>
-      <c r="L106" s="19"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="18"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -5535,11 +5514,11 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="19"/>
-      <c r="I107" s="19"/>
-      <c r="J107" s="19"/>
-      <c r="K107" s="19"/>
-      <c r="L107" s="19"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -5565,11 +5544,11 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="18"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -5595,11 +5574,11 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="19"/>
-      <c r="L109" s="19"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -5625,11 +5604,11 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="19"/>
-      <c r="L110" s="19"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -5655,11 +5634,11 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="19"/>
-      <c r="I111" s="19"/>
-      <c r="J111" s="19"/>
-      <c r="K111" s="19"/>
-      <c r="L111" s="19"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -5685,11 +5664,11 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -5715,11 +5694,11 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="18"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -5745,11 +5724,11 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="19"/>
-      <c r="L114" s="19"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="18"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -5775,11 +5754,11 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="19"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="19"/>
-      <c r="K115" s="19"/>
-      <c r="L115" s="19"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -5805,11 +5784,11 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="19"/>
-      <c r="I116" s="19"/>
-      <c r="J116" s="19"/>
-      <c r="K116" s="19"/>
-      <c r="L116" s="19"/>
+      <c r="H116" s="18"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="18"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -5835,11 +5814,11 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="19"/>
-      <c r="I117" s="19"/>
-      <c r="J117" s="19"/>
-      <c r="K117" s="19"/>
-      <c r="L117" s="19"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -5865,11 +5844,11 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
+      <c r="H118" s="18"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="18"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -5895,11 +5874,11 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -5925,11 +5904,11 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="19"/>
-      <c r="I120" s="19"/>
-      <c r="J120" s="19"/>
-      <c r="K120" s="19"/>
-      <c r="L120" s="19"/>
+      <c r="H120" s="18"/>
+      <c r="I120" s="18"/>
+      <c r="J120" s="18"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -5955,11 +5934,11 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="19"/>
-      <c r="I121" s="19"/>
-      <c r="J121" s="19"/>
-      <c r="K121" s="19"/>
-      <c r="L121" s="19"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -5985,11 +5964,11 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
+      <c r="H122" s="18"/>
+      <c r="I122" s="18"/>
+      <c r="J122" s="18"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -6015,11 +5994,11 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -6045,11 +6024,11 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="19"/>
-      <c r="I124" s="19"/>
-      <c r="J124" s="19"/>
-      <c r="K124" s="19"/>
-      <c r="L124" s="19"/>
+      <c r="H124" s="18"/>
+      <c r="I124" s="18"/>
+      <c r="J124" s="18"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -6075,11 +6054,11 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
-      <c r="J125" s="19"/>
-      <c r="K125" s="19"/>
-      <c r="L125" s="19"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -6105,11 +6084,11 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="18"/>
+      <c r="J126" s="18"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
@@ -6135,11 +6114,11 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="18"/>
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
@@ -6165,11 +6144,11 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="19"/>
-      <c r="I128" s="19"/>
-      <c r="J128" s="19"/>
-      <c r="K128" s="19"/>
-      <c r="L128" s="19"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="18"/>
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
@@ -6195,11 +6174,11 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="19"/>
-      <c r="I129" s="19"/>
-      <c r="J129" s="19"/>
-      <c r="K129" s="19"/>
-      <c r="L129" s="19"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18"/>
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
@@ -6225,11 +6204,11 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="19"/>
-      <c r="I130" s="19"/>
-      <c r="J130" s="19"/>
-      <c r="K130" s="19"/>
-      <c r="L130" s="19"/>
+      <c r="H130" s="18"/>
+      <c r="I130" s="18"/>
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -6255,11 +6234,11 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="19"/>
-      <c r="I131" s="19"/>
-      <c r="J131" s="19"/>
-      <c r="K131" s="19"/>
-      <c r="L131" s="19"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18"/>
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
@@ -6285,11 +6264,11 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="19"/>
-      <c r="I132" s="19"/>
-      <c r="J132" s="19"/>
-      <c r="K132" s="19"/>
-      <c r="L132" s="19"/>
+      <c r="H132" s="18"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
@@ -6315,11 +6294,11 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="19"/>
-      <c r="I133" s="19"/>
-      <c r="J133" s="19"/>
-      <c r="K133" s="19"/>
-      <c r="L133" s="19"/>
+      <c r="H133" s="18"/>
+      <c r="I133" s="18"/>
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
@@ -6345,11 +6324,11 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="19"/>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
@@ -6375,11 +6354,11 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="19"/>
-      <c r="I135" s="19"/>
-      <c r="J135" s="19"/>
-      <c r="K135" s="19"/>
-      <c r="L135" s="19"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18"/>
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -6405,11 +6384,11 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="19"/>
-      <c r="I136" s="19"/>
-      <c r="J136" s="19"/>
-      <c r="K136" s="19"/>
-      <c r="L136" s="19"/>
+      <c r="H136" s="18"/>
+      <c r="I136" s="18"/>
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
@@ -6435,11 +6414,11 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="19"/>
-      <c r="I137" s="19"/>
-      <c r="J137" s="19"/>
-      <c r="K137" s="19"/>
-      <c r="L137" s="19"/>
+      <c r="H137" s="18"/>
+      <c r="I137" s="18"/>
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
@@ -6465,11 +6444,11 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18"/>
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -6495,11 +6474,11 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="19"/>
-      <c r="L139" s="19"/>
+      <c r="H139" s="18"/>
+      <c r="I139" s="18"/>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -6525,11 +6504,11 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="19"/>
-      <c r="L140" s="19"/>
+      <c r="H140" s="18"/>
+      <c r="I140" s="18"/>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -6555,11 +6534,11 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="19"/>
-      <c r="K141" s="19"/>
-      <c r="L141" s="19"/>
+      <c r="H141" s="18"/>
+      <c r="I141" s="18"/>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
@@ -6585,11 +6564,11 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
+      <c r="H142" s="18"/>
+      <c r="I142" s="18"/>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
@@ -6615,11 +6594,11 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="19"/>
-      <c r="K143" s="19"/>
-      <c r="L143" s="19"/>
+      <c r="H143" s="18"/>
+      <c r="I143" s="18"/>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -6645,11 +6624,11 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="19"/>
-      <c r="K144" s="19"/>
-      <c r="L144" s="19"/>
+      <c r="H144" s="18"/>
+      <c r="I144" s="18"/>
+      <c r="J144" s="18"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
@@ -6675,11 +6654,11 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="19"/>
-      <c r="L145" s="19"/>
+      <c r="H145" s="18"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
@@ -6705,11 +6684,11 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
+      <c r="H146" s="18"/>
+      <c r="I146" s="18"/>
+      <c r="J146" s="18"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
@@ -6735,11 +6714,11 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="19"/>
-      <c r="K147" s="19"/>
-      <c r="L147" s="19"/>
+      <c r="H147" s="18"/>
+      <c r="I147" s="18"/>
+      <c r="J147" s="18"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -6765,11 +6744,11 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="19"/>
-      <c r="K148" s="19"/>
-      <c r="L148" s="19"/>
+      <c r="H148" s="18"/>
+      <c r="I148" s="18"/>
+      <c r="J148" s="18"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
@@ -6795,11 +6774,11 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="19"/>
-      <c r="L149" s="19"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
@@ -6825,11 +6804,11 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="19"/>
-      <c r="K150" s="19"/>
-      <c r="L150" s="19"/>
+      <c r="H150" s="18"/>
+      <c r="I150" s="18"/>
+      <c r="J150" s="18"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
@@ -6855,11 +6834,11 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="19"/>
-      <c r="K151" s="19"/>
-      <c r="L151" s="19"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -6885,11 +6864,11 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
+      <c r="H152" s="18"/>
+      <c r="I152" s="18"/>
+      <c r="J152" s="18"/>
+      <c r="K152" s="18"/>
+      <c r="L152" s="18"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
@@ -6915,11 +6894,11 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
+      <c r="H153" s="18"/>
+      <c r="I153" s="18"/>
+      <c r="J153" s="18"/>
+      <c r="K153" s="18"/>
+      <c r="L153" s="18"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
@@ -6945,11 +6924,11 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
+      <c r="H154" s="18"/>
+      <c r="I154" s="18"/>
+      <c r="J154" s="18"/>
+      <c r="K154" s="18"/>
+      <c r="L154" s="18"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -6975,11 +6954,11 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="19"/>
-      <c r="L155" s="19"/>
+      <c r="H155" s="18"/>
+      <c r="I155" s="18"/>
+      <c r="J155" s="18"/>
+      <c r="K155" s="18"/>
+      <c r="L155" s="18"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
@@ -7005,11 +6984,11 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="19"/>
-      <c r="L156" s="19"/>
+      <c r="H156" s="18"/>
+      <c r="I156" s="18"/>
+      <c r="J156" s="18"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="18"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
@@ -7035,11 +7014,11 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="19"/>
-      <c r="I157" s="19"/>
-      <c r="J157" s="19"/>
-      <c r="K157" s="19"/>
-      <c r="L157" s="19"/>
+      <c r="H157" s="18"/>
+      <c r="I157" s="18"/>
+      <c r="J157" s="18"/>
+      <c r="K157" s="18"/>
+      <c r="L157" s="18"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
@@ -7065,11 +7044,11 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19"/>
-      <c r="J158" s="19"/>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
@@ -7095,11 +7074,11 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19"/>
-      <c r="J159" s="19"/>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
+      <c r="H159" s="18"/>
+      <c r="I159" s="18"/>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
@@ -7125,11 +7104,11 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="19"/>
-      <c r="I160" s="19"/>
-      <c r="J160" s="19"/>
-      <c r="K160" s="19"/>
-      <c r="L160" s="19"/>
+      <c r="H160" s="18"/>
+      <c r="I160" s="18"/>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -7155,11 +7134,11 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="19"/>
-      <c r="I161" s="19"/>
-      <c r="J161" s="19"/>
-      <c r="K161" s="19"/>
-      <c r="L161" s="19"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -7185,11 +7164,11 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="19"/>
-      <c r="J162" s="19"/>
-      <c r="K162" s="19"/>
-      <c r="L162" s="19"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
@@ -7215,11 +7194,11 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="19"/>
-      <c r="I163" s="19"/>
-      <c r="J163" s="19"/>
-      <c r="K163" s="19"/>
-      <c r="L163" s="19"/>
+      <c r="H163" s="18"/>
+      <c r="I163" s="18"/>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
@@ -7245,11 +7224,11 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="19"/>
-      <c r="I164" s="19"/>
-      <c r="J164" s="19"/>
-      <c r="K164" s="19"/>
-      <c r="L164" s="19"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -7275,11 +7254,11 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
@@ -7305,11 +7284,11 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
+      <c r="H166" s="18"/>
+      <c r="I166" s="18"/>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
@@ -7392,34 +7371,34 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="str">
+      <c r="A3" s="26" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>177</v>
+      <c r="D4" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7427,13 +7406,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -7441,13 +7420,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -7455,13 +7434,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -7474,13 +7453,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7540,7 +7519,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7552,25 +7531,25 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7606,13 +7585,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7642,7 +7621,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7660,7 +7639,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7672,7 +7651,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7690,7 +7669,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7702,13 +7681,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7720,19 +7699,19 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7756,7 +7735,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -7774,7 +7753,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -7792,7 +7771,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7840,19 +7819,19 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="18"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7882,7 +7861,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="18"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7894,7 +7873,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7906,7 +7885,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -7930,7 +7909,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7948,7 +7927,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7972,15 +7951,15 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7996,7 +7975,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -8008,31 +7987,31 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="19"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="19"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="19"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8071,10 +8050,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8100,17 +8079,17 @@
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>186</v>
+      <c r="A4" s="27" t="s">
+        <v>179</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8120,11 +8099,11 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>134</v>
+      <c r="A5" s="43" t="s">
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -8134,9 +8113,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -8146,9 +8125,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
@@ -8158,21 +8137,21 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -8182,9 +8161,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -8194,9 +8173,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -8206,9 +8185,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -8218,9 +8197,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -8230,9 +8209,9 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -8242,9 +8221,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -8254,11 +8233,11 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>135</v>
+      <c r="A16" s="43" t="s">
+        <v>132</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -8268,9 +8247,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
@@ -8280,9 +8259,9 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -8292,21 +8271,19 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>182</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
         <v>41</v>
@@ -8316,11 +8293,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
-        <v>136</v>
+      <c r="A21" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -8330,9 +8307,9 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -8342,9 +8319,9 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -8354,9 +8331,9 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" t="s">
         <v>45</v>
@@ -8366,9 +8343,9 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
         <v>46</v>
@@ -8378,9 +8355,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C26" t="s">
         <v>47</v>
@@ -8390,9 +8367,9 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -8402,9 +8379,9 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
@@ -8414,9 +8391,9 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="43"/>
       <c r="B29" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
         <v>50</v>
@@ -8426,9 +8403,9 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
@@ -8438,9 +8415,9 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
         <v>52</v>
@@ -8450,11 +8427,11 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="44" t="s">
-        <v>137</v>
+      <c r="A32" s="43" t="s">
+        <v>134</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
         <v>53</v>
@@ -8464,9 +8441,9 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
         <v>54</v>
@@ -8476,9 +8453,9 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
@@ -8488,9 +8465,9 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
         <v>56</v>
@@ -8500,9 +8477,9 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -8512,9 +8489,9 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
         <v>58</v>
@@ -8524,9 +8501,9 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C38" t="s">
         <v>59</v>
@@ -8536,9 +8513,9 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" t="s">
         <v>60</v>
@@ -8548,11 +8525,11 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="44" t="s">
-        <v>138</v>
+      <c r="A40" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
         <v>61</v>
@@ -8562,9 +8539,9 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
@@ -8574,9 +8551,9 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -8586,9 +8563,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -8598,9 +8575,9 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="43"/>
       <c r="B44" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
@@ -8610,9 +8587,9 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
         <v>66</v>
@@ -8622,9 +8599,9 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
         <v>67</v>
@@ -8634,191 +8611,167 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="9" t="s">
+      <c r="A47" s="43"/>
+      <c r="B47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="C48" t="s">
         <v>69</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="43"/>
+      <c r="B49" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="43"/>
+      <c r="B50" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="43" t="s">
+        <v>137</v>
+      </c>
       <c r="B51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="6" t="s">
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="6" t="s">
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="6" t="s">
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="6" t="s">
+      <c r="C56" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="6" t="s">
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C57" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C60" t="s">
-        <v>80</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A53:A58"/>
-    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A51:A56"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="A16:A20"/>
     <mergeCell ref="A21:A31"/>
     <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="A48:A50"/>
   </mergeCells>
-  <conditionalFormatting sqref="A5:D60">
+  <conditionalFormatting sqref="A5:D58">
     <cfRule type="expression" dxfId="5" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
@@ -8837,7 +8790,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14 D17 D58:D60 D48 D43 D39:D41 D37 D30:D31 D26 D21:D24" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D14 D17 D56:D58 D47 D43 D39:D41 D37 D30:D31 D26 D21:D24" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>"0,1"</formula1>
     </dataValidation>
     <dataValidation errorStyle="warning" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Empty" error="Cannot be empty, please enter either False or the name of an existing Load Flow Command to use (i.e. Load Flow Calculation.ComLdf)" sqref="D4" xr:uid="{A6D47467-2239-459C-B9B4-99D08878A811}"/>
@@ -8872,138 +8825,138 @@
       <c r="B1" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>201</v>
+      <c r="A4" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>144</v>
+      <c r="A5" s="43" t="s">
+        <v>140</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D5" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D7" s="8">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>145</v>
+      <c r="A11" s="43" t="s">
+        <v>141</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9042,15 +8995,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9202,6 +9146,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9214,14 +9167,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9235,6 +9180,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5739D19-C6A3-4E6F-A23F-59B1568FF27F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782B086C-C2D8-4480-972A-3A6373331DBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -353,14 +353,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="230">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Change Log</t>
   </si>
   <si>
@@ -373,9 +370,6 @@
     <t>Version</t>
   </si>
   <si>
-    <t>Created</t>
-  </si>
-  <si>
     <t>Database</t>
   </si>
   <si>
@@ -853,9 +847,6 @@
     <t>True = Carries out a full check of the supplied cases and runs N-1 to see if they all solve in loadflow</t>
   </si>
   <si>
-    <t>True = Deletes the 3 created folder after 1) Results under studcases, 2)Operation Scenarios, 3) Mutual Element Folder under network elements</t>
-  </si>
-  <si>
     <t>True = Exports the R &amp; X data</t>
   </si>
   <si>
@@ -877,9 +868,6 @@
     <t>D:\Users\david\Desktop\</t>
   </si>
   <si>
-    <t>True = Export the results to Excel (Can be done later)</t>
-  </si>
-  <si>
     <t>BASE</t>
   </si>
   <si>
@@ -910,9 +898,6 @@
     <t>This is used to carry out multiple frequency scans of a system using PowerFactory</t>
   </si>
   <si>
-    <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI and if blank uses the current working directory ie where the script is stored.</t>
-  </si>
-  <si>
     <t>This sheet can be populated with settings to control some of the inputs and exports from the study that is about to be run. Some of these settings are configurable as part of the GUI</t>
   </si>
   <si>
@@ -1037,6 +1022,27 @@
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Description and instructions</t>
+  </si>
+  <si>
+    <t>Reference Document:</t>
+  </si>
+  <si>
+    <t>JA7896-03:  PSC Harmonics Tool</t>
+  </si>
+  <si>
+    <t>Initial Version</t>
+  </si>
+  <si>
+    <t>True = Deletes the temporary folders created within PowerFactory after studies completed.</t>
+  </si>
+  <si>
+    <t>True = Export the results to Excel (If this isn't done then just runs pre-case checks)</t>
+  </si>
+  <si>
+    <t>Default folder to store log messages and the excel results, this can be overwritten using the GUI</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1163,7 +1169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1347,23 +1353,172 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1398,7 +1553,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1406,14 +1560,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,7 +1591,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1539,6 +1733,391 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251611</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1828800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C81C870-C896-4631-8B25-9CCC79CE25A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8143875" y="171450"/>
+          <a:ext cx="2099461" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4143375</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6109335</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>784860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6627450B-AF59-49F6-9651-D5C45FF83EBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="76200"/>
+          <a:ext cx="1965960" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2461260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>756285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234E60EC-DA24-4DE5-8DE7-A97FB2127A30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9896475" y="47625"/>
+          <a:ext cx="1965960" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455568</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>858338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D8E6414-1239-4058-A74A-259D5C92418B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8150679" y="149678"/>
+          <a:ext cx="1965960" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>756285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE35FB20-8ECE-4103-BCF6-7537725787F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2066925" y="47625"/>
+          <a:ext cx="1956435" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1318260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>784860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0314F04-B1E6-460E-9540-0D2C5741EAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5314950" y="76200"/>
+          <a:ext cx="1956435" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1423035</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>794385</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE53B886-6E83-48B6-ABB0-2657EC0DFF5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="screen">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5429250" y="85725"/>
+          <a:ext cx="1956435" cy="708660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1865,86 +2444,264 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="115" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>183</v>
-      </c>
+    <row r="1" spans="1:4" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="A7" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="47">
         <v>43977</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>227</v>
+      <c r="D7" s="48" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="45"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="50"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="45"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="50"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="50"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="50"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="50"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="50"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="50"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="50"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D5"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{477F3872-8931-439B-A60C-1FBCBD8D01A1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1954,123 +2711,138 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" customWidth="1"/>
-    <col min="4" max="6" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="93.85546875" customWidth="1"/>
+    <col min="4" max="6" width="11" hidden="1"/>
+    <col min="7" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
-        <v>186</v>
-      </c>
+    <row r="1" spans="1:6" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="13" t="b">
+      <c r="B9" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="B8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B9" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>174</v>
+      <c r="C9" s="10" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="13" t="b">
+        <v>161</v>
+      </c>
+      <c r="B10" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>167</v>
+      <c r="C10" s="10" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="B11" s="13" t="b">
+      <c r="A11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>168</v>
+      <c r="C11" s="10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="13" t="b">
+      <c r="A12" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>226</v>
+      <c r="C12" s="10" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:C4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B11" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -2079,6 +2851,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2088,168 +2861,185 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="61" customWidth="1"/>
-    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row r="1" spans="1:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+    </row>
     <row r="4" spans="1:4" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>26</v>
+      <c r="B4" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>192</v>
+        <v>171</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="23"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="23"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2258,183 +3048,204 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="6.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="27" width="9.140625" customWidth="1"/>
+    <col min="28" max="28" width="9" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="21" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:28" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>202</v>
+    <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:28" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+    </row>
+    <row r="3" spans="1:28" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="37" t="s">
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="37" t="s">
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="37" t="s">
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="37" t="s">
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="37" t="s">
+      <c r="U4" s="34"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="37" t="s">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="37" t="s">
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="35"/>
+    </row>
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="37" t="s">
+      <c r="C5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="39"/>
-    </row>
-    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="U5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="V5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="W5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="X5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y5" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z5" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB5" s="33" t="s">
-        <v>170</v>
+      <c r="D5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="R5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="Z5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="29" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -2468,31 +3279,31 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+        <v>201</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -2512,43 +3323,43 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="I8" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>215</v>
-      </c>
       <c r="M8" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -2574,11 +3385,11 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2604,11 +3415,11 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2634,11 +3445,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2664,11 +3475,11 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -2694,11 +3505,11 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2724,11 +3535,11 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2754,11 +3565,11 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2784,11 +3595,11 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2814,11 +3625,11 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2844,11 +3655,11 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2874,11 +3685,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2904,11 +3715,11 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2934,11 +3745,11 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2964,11 +3775,11 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2994,11 +3805,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -3024,11 +3835,11 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
@@ -3054,11 +3865,11 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
@@ -3084,11 +3895,11 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
@@ -3114,11 +3925,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
@@ -3144,11 +3955,11 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
@@ -3174,11 +3985,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -3204,11 +4015,11 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -3234,11 +4045,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -3264,11 +4075,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -3294,11 +4105,11 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -3324,11 +4135,11 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -3354,11 +4165,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -3384,11 +4195,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -3414,11 +4225,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -3444,11 +4255,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -3474,11 +4285,11 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -3504,11 +4315,11 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -3534,11 +4345,11 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3564,11 +4375,11 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3594,11 +4405,11 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -3624,11 +4435,11 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -3654,11 +4465,11 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -3684,11 +4495,11 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3714,11 +4525,11 @@
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -3744,11 +4555,11 @@
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -3774,11 +4585,11 @@
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -3804,11 +4615,11 @@
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -3834,11 +4645,11 @@
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -3864,11 +4675,11 @@
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -3894,11 +4705,11 @@
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -3924,11 +4735,11 @@
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -3954,11 +4765,11 @@
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -3984,11 +4795,11 @@
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -4014,11 +4825,11 @@
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -4044,11 +4855,11 @@
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -4074,11 +4885,11 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -4104,11 +4915,11 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -4134,11 +4945,11 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -4164,11 +4975,11 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -4194,11 +5005,11 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -4224,11 +5035,11 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -4254,11 +5065,11 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -4284,11 +5095,11 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -4314,11 +5125,11 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -4344,11 +5155,11 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -4374,11 +5185,11 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -4404,11 +5215,11 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -4434,11 +5245,11 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -4464,11 +5275,11 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -4494,11 +5305,11 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -4524,11 +5335,11 @@
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -4554,11 +5365,11 @@
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -4584,11 +5395,11 @@
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -4614,11 +5425,11 @@
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -4644,11 +5455,11 @@
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -4674,11 +5485,11 @@
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -4704,11 +5515,11 @@
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -4734,11 +5545,11 @@
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -4764,11 +5575,11 @@
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -4794,11 +5605,11 @@
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -4824,11 +5635,11 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -4854,11 +5665,11 @@
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -4884,11 +5695,11 @@
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -4914,11 +5725,11 @@
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -4944,11 +5755,11 @@
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -4974,11 +5785,11 @@
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -5004,11 +5815,11 @@
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -5034,11 +5845,11 @@
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -5064,11 +5875,11 @@
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -5094,11 +5905,11 @@
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -5124,11 +5935,11 @@
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -5154,11 +5965,11 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -5184,11 +5995,11 @@
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -5214,11 +6025,11 @@
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -5244,11 +6055,11 @@
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -5274,11 +6085,11 @@
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -5304,11 +6115,11 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
@@ -5334,11 +6145,11 @@
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
@@ -5364,11 +6175,11 @@
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
@@ -5394,11 +6205,11 @@
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
       <c r="M103" s="3"/>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
@@ -5424,11 +6235,11 @@
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
       <c r="M104" s="3"/>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
@@ -5454,11 +6265,11 @@
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
@@ -5484,11 +6295,11 @@
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
@@ -5514,11 +6325,11 @@
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
       <c r="M107" s="3"/>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
@@ -5544,11 +6355,11 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
@@ -5574,11 +6385,11 @@
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
@@ -5604,11 +6415,11 @@
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="16"/>
+      <c r="L110" s="16"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
@@ -5634,11 +6445,11 @@
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="16"/>
+      <c r="L111" s="16"/>
       <c r="M111" s="3"/>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
@@ -5664,11 +6475,11 @@
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="16"/>
+      <c r="L112" s="16"/>
       <c r="M112" s="3"/>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
@@ -5694,11 +6505,11 @@
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="16"/>
+      <c r="L113" s="16"/>
       <c r="M113" s="3"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
@@ -5724,11 +6535,11 @@
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="16"/>
+      <c r="L114" s="16"/>
       <c r="M114" s="3"/>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
@@ -5754,11 +6565,11 @@
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="16"/>
+      <c r="L115" s="16"/>
       <c r="M115" s="3"/>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
@@ -5784,11 +6595,11 @@
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="16"/>
+      <c r="L116" s="16"/>
       <c r="M116" s="3"/>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
@@ -5814,11 +6625,11 @@
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="16"/>
+      <c r="L117" s="16"/>
       <c r="M117" s="3"/>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
@@ -5844,11 +6655,11 @@
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="16"/>
+      <c r="L118" s="16"/>
       <c r="M118" s="3"/>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
@@ -5874,11 +6685,11 @@
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="16"/>
+      <c r="L119" s="16"/>
       <c r="M119" s="3"/>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
@@ -5904,11 +6715,11 @@
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="16"/>
+      <c r="L120" s="16"/>
       <c r="M120" s="3"/>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
@@ -5934,11 +6745,11 @@
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="16"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="3"/>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
@@ -5964,11 +6775,11 @@
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="16"/>
+      <c r="L122" s="16"/>
       <c r="M122" s="3"/>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
@@ -5994,11 +6805,11 @@
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="16"/>
+      <c r="L123" s="16"/>
       <c r="M123" s="3"/>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
@@ -6024,11 +6835,11 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="16"/>
+      <c r="L124" s="16"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -6054,11 +6865,11 @@
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="16"/>
+      <c r="L125" s="16"/>
       <c r="M125" s="3"/>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
@@ -6084,11 +6895,11 @@
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="16"/>
+      <c r="L126" s="16"/>
       <c r="M126" s="3"/>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
@@ -6114,11 +6925,11 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="16"/>
+      <c r="L127" s="16"/>
       <c r="M127" s="3"/>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
@@ -6144,11 +6955,11 @@
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="16"/>
+      <c r="L128" s="16"/>
       <c r="M128" s="3"/>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
@@ -6174,11 +6985,11 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="16"/>
+      <c r="L129" s="16"/>
       <c r="M129" s="3"/>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
@@ -6204,11 +7015,11 @@
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="16"/>
+      <c r="L130" s="16"/>
       <c r="M130" s="3"/>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
@@ -6234,11 +7045,11 @@
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="16"/>
+      <c r="L131" s="16"/>
       <c r="M131" s="3"/>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
@@ -6264,11 +7075,11 @@
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="16"/>
+      <c r="L132" s="16"/>
       <c r="M132" s="3"/>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
@@ -6294,11 +7105,11 @@
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="16"/>
+      <c r="L133" s="16"/>
       <c r="M133" s="3"/>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
@@ -6324,11 +7135,11 @@
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="16"/>
+      <c r="L134" s="16"/>
       <c r="M134" s="3"/>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
@@ -6354,11 +7165,11 @@
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="16"/>
       <c r="M135" s="3"/>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
@@ -6384,11 +7195,11 @@
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="16"/>
+      <c r="L136" s="16"/>
       <c r="M136" s="3"/>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
@@ -6414,11 +7225,11 @@
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="16"/>
+      <c r="L137" s="16"/>
       <c r="M137" s="3"/>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
@@ -6444,11 +7255,11 @@
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="16"/>
+      <c r="L138" s="16"/>
       <c r="M138" s="3"/>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
@@ -6474,11 +7285,11 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="16"/>
+      <c r="L139" s="16"/>
       <c r="M139" s="3"/>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
@@ -6504,11 +7315,11 @@
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="16"/>
       <c r="M140" s="3"/>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
@@ -6534,11 +7345,11 @@
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="16"/>
+      <c r="L141" s="16"/>
       <c r="M141" s="3"/>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
@@ -6564,11 +7375,11 @@
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="16"/>
+      <c r="L142" s="16"/>
       <c r="M142" s="3"/>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
@@ -6594,11 +7405,11 @@
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="16"/>
+      <c r="L143" s="16"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -6624,11 +7435,11 @@
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="16"/>
+      <c r="L144" s="16"/>
       <c r="M144" s="3"/>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
@@ -6654,11 +7465,11 @@
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
-      <c r="H145" s="18"/>
-      <c r="I145" s="18"/>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="16"/>
+      <c r="L145" s="16"/>
       <c r="M145" s="3"/>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
@@ -6684,11 +7495,11 @@
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
-      <c r="H146" s="18"/>
-      <c r="I146" s="18"/>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="16"/>
+      <c r="L146" s="16"/>
       <c r="M146" s="3"/>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
@@ -6714,11 +7525,11 @@
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
-      <c r="H147" s="18"/>
-      <c r="I147" s="18"/>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="16"/>
+      <c r="L147" s="16"/>
       <c r="M147" s="3"/>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
@@ -6744,11 +7555,11 @@
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="18"/>
-      <c r="I148" s="18"/>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="16"/>
+      <c r="L148" s="16"/>
       <c r="M148" s="3"/>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
@@ -6774,11 +7585,11 @@
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="16"/>
+      <c r="L149" s="16"/>
       <c r="M149" s="3"/>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
@@ -6804,11 +7615,11 @@
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
-      <c r="H150" s="18"/>
-      <c r="I150" s="18"/>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="16"/>
+      <c r="L150" s="16"/>
       <c r="M150" s="3"/>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
@@ -6834,11 +7645,11 @@
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
       <c r="M151" s="3"/>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
@@ -6864,11 +7675,11 @@
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
-      <c r="H152" s="18"/>
-      <c r="I152" s="18"/>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="16"/>
+      <c r="L152" s="16"/>
       <c r="M152" s="3"/>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
@@ -6894,11 +7705,11 @@
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
-      <c r="H153" s="18"/>
-      <c r="I153" s="18"/>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
       <c r="M153" s="3"/>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
@@ -6924,11 +7735,11 @@
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
-      <c r="H154" s="18"/>
-      <c r="I154" s="18"/>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="16"/>
+      <c r="L154" s="16"/>
       <c r="M154" s="3"/>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
@@ -6954,11 +7765,11 @@
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
-      <c r="H155" s="18"/>
-      <c r="I155" s="18"/>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="16"/>
+      <c r="L155" s="16"/>
       <c r="M155" s="3"/>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
@@ -6984,11 +7795,11 @@
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
-      <c r="H156" s="18"/>
-      <c r="I156" s="18"/>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="16"/>
+      <c r="L156" s="16"/>
       <c r="M156" s="3"/>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
@@ -7014,11 +7825,11 @@
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
-      <c r="H157" s="18"/>
-      <c r="I157" s="18"/>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="16"/>
+      <c r="L157" s="16"/>
       <c r="M157" s="3"/>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
@@ -7044,11 +7855,11 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="16"/>
+      <c r="L158" s="16"/>
       <c r="M158" s="3"/>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
@@ -7074,11 +7885,11 @@
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="16"/>
+      <c r="L159" s="16"/>
       <c r="M159" s="3"/>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
@@ -7104,11 +7915,11 @@
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
-      <c r="H160" s="18"/>
-      <c r="I160" s="18"/>
-      <c r="J160" s="18"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="18"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="16"/>
+      <c r="L160" s="16"/>
       <c r="M160" s="3"/>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
@@ -7134,11 +7945,11 @@
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="16"/>
+      <c r="L161" s="16"/>
       <c r="M161" s="3"/>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
@@ -7164,11 +7975,11 @@
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="16"/>
+      <c r="L162" s="16"/>
       <c r="M162" s="3"/>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
@@ -7194,11 +8005,11 @@
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
-      <c r="H163" s="18"/>
-      <c r="I163" s="18"/>
-      <c r="J163" s="18"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="18"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="16"/>
+      <c r="L163" s="16"/>
       <c r="M163" s="3"/>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
@@ -7224,11 +8035,11 @@
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
       <c r="M164" s="3"/>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
@@ -7254,11 +8065,11 @@
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
-      <c r="H165" s="18"/>
-      <c r="I165" s="18"/>
-      <c r="J165" s="18"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="18"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="16"/>
+      <c r="L165" s="16"/>
       <c r="M165" s="3"/>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
@@ -7284,11 +8095,11 @@
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
-      <c r="H166" s="18"/>
-      <c r="I166" s="18"/>
-      <c r="J166" s="18"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="18"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
       <c r="M166" s="3"/>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
@@ -7311,7 +8122,9 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:J153">
     <sortCondition ref="A54:A153"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="E4:G4"/>
@@ -7345,7 +8158,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7355,50 +8169,61 @@
   <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>22</v>
-      </c>
+    <row r="1" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="str">
+      <c r="A3" s="23" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>171</v>
+      <c r="D4" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="b">
         <v>0</v>
@@ -7406,13 +8231,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D6" s="3" t="b">
         <v>0</v>
@@ -7420,13 +8245,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D7" s="3" t="b">
         <v>1</v>
@@ -7434,13 +8259,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D8" s="3" t="b">
         <v>0</v>
@@ -7453,13 +8278,13 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -7519,7 +8344,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7531,25 +8356,25 @@
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -7585,13 +8410,13 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -7621,7 +8446,7 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7639,7 +8464,7 @@
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -7651,7 +8476,7 @@
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -7669,7 +8494,7 @@
       <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7681,13 +8506,13 @@
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7699,19 +8524,19 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7735,7 +8560,7 @@
       <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -7753,7 +8578,7 @@
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -7771,7 +8596,7 @@
       <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -7819,19 +8644,19 @@
       <c r="D70" s="3"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="16"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="18"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7861,7 +8686,7 @@
       <c r="D77" s="3"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7873,7 +8698,7 @@
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
+      <c r="A80" s="16"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -7885,7 +8710,7 @@
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -7909,7 +8734,7 @@
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7927,7 +8752,7 @@
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -7951,15 +8776,15 @@
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="18"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -7975,7 +8800,7 @@
       <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="18"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -7987,31 +8812,31 @@
       <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="18"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -8021,6 +8846,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:A8">
     <sortCondition ref="A5:A8"/>
   </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <conditionalFormatting sqref="A5:A6 A8:A103">
     <cfRule type="expression" dxfId="9" priority="5">
       <formula>LEN(A5)&gt;19</formula>
@@ -8043,53 +8872,71 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B48" sqref="A48:XFD48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="55.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12" hidden="1"/>
+    <col min="9" max="9" width="9.140625" hidden="1"/>
+    <col min="10" max="10" width="13" hidden="1"/>
+    <col min="11" max="11" width="13.140625" hidden="1"/>
+    <col min="12" max="12" width="28.5703125" hidden="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1"/>
+    <col min="14" max="14" width="15.85546875" hidden="1"/>
+    <col min="15" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7"/>
+    <row r="1" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>182</v>
+      <c r="A4" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="1" t="str">
         <f>IF($D$4="","&lt;--- Cannot be empty, please enter False","")</f>
@@ -8099,669 +8946,671 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>169</v>
+      <c r="A5" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="6" t="s">
-        <v>80</v>
+      <c r="A6" s="39"/>
+      <c r="B6" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="6" t="s">
-        <v>88</v>
+      <c r="A7" s="39"/>
+      <c r="B7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="6" t="s">
-        <v>177</v>
+      <c r="A8" s="39"/>
+      <c r="B8" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="6" t="s">
-        <v>81</v>
+      <c r="A9" s="39"/>
+      <c r="B9" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="6" t="s">
-        <v>82</v>
+      <c r="A10" s="39"/>
+      <c r="B10" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="6" t="s">
-        <v>89</v>
+      <c r="A11" s="39"/>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="6" t="s">
-        <v>83</v>
+      <c r="A12" s="39"/>
+      <c r="B12" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="6" t="s">
-        <v>84</v>
+      <c r="A13" s="39"/>
+      <c r="B13" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="6" t="s">
-        <v>85</v>
+      <c r="A14" s="39"/>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="6" t="s">
-        <v>86</v>
+      <c r="A15" s="39"/>
+      <c r="B15" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>87</v>
+      <c r="A16" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="6" t="s">
-        <v>90</v>
+      <c r="A17" s="39"/>
+      <c r="B17" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="6" t="s">
-        <v>91</v>
+      <c r="A18" s="39"/>
+      <c r="B18" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="10"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="6" t="s">
-        <v>92</v>
+      <c r="A20" s="39"/>
+      <c r="B20" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>93</v>
+      <c r="A21" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="6" t="s">
-        <v>94</v>
+      <c r="A22" s="39"/>
+      <c r="B22" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="6" t="s">
-        <v>95</v>
+      <c r="A23" s="39"/>
+      <c r="B23" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="6" t="s">
-        <v>96</v>
+      <c r="A24" s="39"/>
+      <c r="B24" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="6" t="s">
-        <v>97</v>
+      <c r="A25" s="39"/>
+      <c r="B25" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="6" t="s">
-        <v>98</v>
+      <c r="A26" s="39"/>
+      <c r="B26" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="6" t="s">
-        <v>99</v>
+      <c r="A27" s="39"/>
+      <c r="B27" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="6" t="s">
-        <v>100</v>
+      <c r="A28" s="39"/>
+      <c r="B28" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="6" t="s">
-        <v>101</v>
+      <c r="A29" s="39"/>
+      <c r="B29" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="6" t="s">
-        <v>102</v>
+      <c r="A30" s="39"/>
+      <c r="B30" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="6" t="s">
-        <v>103</v>
+      <c r="A31" s="39"/>
+      <c r="B31" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>104</v>
+      <c r="A32" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="6" t="s">
-        <v>105</v>
+      <c r="A33" s="39"/>
+      <c r="B33" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="6" t="s">
-        <v>106</v>
+      <c r="A34" s="39"/>
+      <c r="B34" s="5" t="s">
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="6" t="s">
-        <v>107</v>
+      <c r="A35" s="39"/>
+      <c r="B35" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D35">
         <v>10000</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="6" t="s">
-        <v>108</v>
+      <c r="A36" s="39"/>
+      <c r="B36" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D36">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="6" t="s">
-        <v>109</v>
+      <c r="A37" s="39"/>
+      <c r="B37" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="6" t="s">
-        <v>110</v>
+      <c r="A38" s="39"/>
+      <c r="B38" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="6" t="s">
-        <v>111</v>
+      <c r="A39" s="39"/>
+      <c r="B39" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>112</v>
+      <c r="A40" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="6" t="s">
-        <v>113</v>
+      <c r="A41" s="39"/>
+      <c r="B41" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="6" t="s">
-        <v>114</v>
+      <c r="A42" s="39"/>
+      <c r="B42" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="6" t="s">
-        <v>115</v>
+      <c r="A43" s="39"/>
+      <c r="B43" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="6" t="s">
-        <v>116</v>
+      <c r="A44" s="39"/>
+      <c r="B44" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D44">
         <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="6" t="s">
-        <v>117</v>
+      <c r="A45" s="39"/>
+      <c r="B45" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>0.9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="6" t="s">
-        <v>118</v>
+      <c r="A46" s="39"/>
+      <c r="B46" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D46">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
-      <c r="B47" s="6" t="s">
-        <v>119</v>
+      <c r="A47" s="39"/>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>120</v>
+      <c r="A48" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="6" t="s">
-        <v>121</v>
+      <c r="A49" s="39"/>
+      <c r="B49" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D49">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="6" t="s">
-        <v>122</v>
+      <c r="A50" s="39"/>
+      <c r="B50" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>123</v>
+      <c r="A51" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="43"/>
-      <c r="B52" s="6" t="s">
-        <v>124</v>
+      <c r="A52" s="39"/>
+      <c r="B52" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D52">
         <v>0.9</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="6" t="s">
-        <v>125</v>
+      <c r="A53" s="39"/>
+      <c r="B53" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="6" t="s">
-        <v>126</v>
+      <c r="A54" s="39"/>
+      <c r="B54" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54">
         <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="6" t="s">
-        <v>127</v>
+      <c r="A55" s="39"/>
+      <c r="B55" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="43"/>
-      <c r="B56" s="6" t="s">
-        <v>128</v>
+      <c r="A56" s="39"/>
+      <c r="B56" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="43" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>129</v>
+      <c r="A57" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="43"/>
-      <c r="B58" s="6" t="s">
-        <v>130</v>
+      <c r="A58" s="39"/>
+      <c r="B58" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:D3"/>
     <mergeCell ref="A51:A56"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="A5:A15"/>
@@ -8797,7 +9646,8 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8806,166 +9656,183 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="7"/>
+    <row r="1" spans="1:4" ht="69.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>195</v>
+      <c r="A4" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
         <v>140</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" t="s">
-        <v>142</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="6" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C9" t="s">
         <v>143</v>
-      </c>
-      <c r="D7" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
       </c>
       <c r="D9">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="6" t="s">
-        <v>156</v>
+      <c r="A10" s="39"/>
+      <c r="B10" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>157</v>
+      <c r="A11" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D11">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="6" t="s">
-        <v>158</v>
+      <c r="A12" s="39"/>
+      <c r="B12" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D12">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="6" t="s">
-        <v>159</v>
+      <c r="A13" s="39"/>
+      <c r="B13" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="43"/>
-      <c r="B14" s="6" t="s">
-        <v>160</v>
+      <c r="A14" s="39"/>
+      <c r="B14" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A2:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
     <cfRule type="expression" dxfId="2" priority="3">
@@ -8990,11 +9857,21 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -9146,15 +10023,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
@@ -9167,6 +10035,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9180,14 +10056,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/tests/test_files/Inputs.xlsx
+++ b/tests/test_files/Inputs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD2B5E8-11BB-4899-BCA1-AA5B08159ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F2FFE3-83FF-47A9-BAAE-82EB4A8FEA96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="868" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="814" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="10" r:id="rId1"/>
@@ -175,6 +175,438 @@
         </r>
       </text>
     </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{A71363A8-65B2-45DF-B222-5FEB8C1F497A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{3E6D1FBA-8D4C-472E-B978-795746F1E8B1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{AC2F622F-0EAE-4D9F-8268-19F08F608DB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{C8EBD9C2-2265-4414-8437-073EE4C373E1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{D756CFE5-F56A-4945-B442-CA4E7FB24505}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{276C2315-543F-4A20-A1F2-00D0BFA3D969}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{2DDD6917-9195-462B-905E-7D84DC9E0EE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{2D0E59A4-CA0B-46DA-83B0-F93D89166674}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{454D0762-E801-49A8-9036-6FB7A0E3B28D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O5" authorId="0" shapeId="0" xr:uid="{E169F9E7-E998-4449-841B-AFB7FA93660A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q5" authorId="0" shapeId="0" xr:uid="{D39B2153-F066-43F5-951A-72502784B79F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{25F55907-781B-40E8-A45E-5102AF235E8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T5" authorId="0" shapeId="0" xr:uid="{E8A00494-10BD-48DC-B6B8-FB4D8D767B5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U5" authorId="0" shapeId="0" xr:uid="{DD7BE88D-D67E-40A6-AC6D-92F7F4E8E0B3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W5" authorId="0" shapeId="0" xr:uid="{7367427C-7D63-4E9F-BD78-CDD7995E292A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X5" authorId="0" shapeId="0" xr:uid="{21E38F55-1338-4CA1-BE78-A425E8BCEF95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{CB27BF79-49EC-4F01-ACE6-A66511B23660}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element for substation with ending '.ElmSwitch'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA5" authorId="0" shapeId="0" xr:uid="{D154C1E4-8448-4B2E-A33C-AA27B2CF46E7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Name of PowerFactory element in substation that has ending '.ElmCoup'</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -206,6 +638,222 @@
           </rPr>
           <t xml:space="preserve">
 Either enter the name of a Contingency analysis in the study case (*.ComSimoutage) to use or set to False and use the contingencies described below</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{E8A1C630-46BE-4255-AA45-B44DC55D197E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{C9EF2244-0586-4B6C-87C4-6624B0B75E61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{42A5C3E7-B2EE-4A09-8B7B-E02D317AB9DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{ED7EECE0-96CB-44B0-B89D-A343849F0B1C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{1B7FDBAA-6198-4BCA-8426-9663E7E24894}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L5" authorId="0" shapeId="0" xr:uid="{FB27C2ED-0C32-4035-833D-1347ABAD801D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{2DF45063-E48B-4E78-9E8D-13D188F89E15}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0" xr:uid="{44F398E0-28F8-4FE9-BBFC-F7B624D301BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R5" authorId="0" shapeId="0" xr:uid="{0C526B02-1196-48B5-A497-8CD616A9800A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Element in PowerFactory of either type line (.ElmLne) or type branch (ElmBranch)</t>
         </r>
       </text>
     </comment>
@@ -1122,9 +1770,6 @@
     <t>Line 5</t>
   </si>
   <si>
-    <t>Line Name</t>
-  </si>
-  <si>
     <t>Line 6</t>
   </si>
   <si>
@@ -1165,6 +1810,9 @@
   </si>
   <si>
     <t>3931655_KGTS_WETS_220</t>
+  </si>
+  <si>
+    <t>Line / Branch Name</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1939,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1465,17 +2113,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1634,24 +2271,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1689,7 +2326,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1767,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -1785,8 +2421,15 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1808,13 +2451,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1831,26 +2467,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1922,6 +2538,26 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2754,7 +3390,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2770,41 +3406,41 @@
       <c r="A1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -2850,7 +3486,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>168</v>
@@ -2859,7 +3495,7 @@
         <v>44030</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3036,7 +3672,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3052,125 +3688,125 @@
       <c r="A1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="B7" s="35" t="b">
+      <c r="B7" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="35" t="b">
+      <c r="B8" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B9" s="35" t="b">
+      <c r="B9" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="38" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="35" t="b">
+      <c r="B10" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="35" t="b">
+      <c r="B11" s="34" t="b">
         <v>0</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="35" t="b">
+      <c r="B12" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="38" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="35" t="b">
+      <c r="B13" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3224,21 +3860,21 @@
       <c r="A1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
     </row>
     <row r="4" spans="1:4" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
@@ -3395,8 +4031,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M9"/>
+    <sheetView topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3416,78 +4052,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
-      <c r="X1" s="61"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="61"/>
-      <c r="AA1" s="61"/>
-      <c r="AB1" s="61"/>
+      <c r="A1" s="64" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="60"/>
+      <c r="AA1" s="60"/>
+      <c r="AB1" s="60"/>
     </row>
     <row r="2" spans="1:28" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
-      <c r="X2" s="72"/>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="72"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
     </row>
     <row r="3" spans="1:28" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="54" t="b">
+      <c r="D3" s="53" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3495,51 +4131,51 @@
       <c r="A4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="65" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="65" t="s">
+      <c r="F4" s="67"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="65" t="s">
+      <c r="I4" s="67"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="65" t="s">
+      <c r="O4" s="67"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="65" t="s">
+      <c r="R4" s="67"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="66"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="65" t="s">
+      <c r="U4" s="67"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="65" t="s">
+      <c r="X4" s="67"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="68"/>
     </row>
     <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
@@ -3554,73 +4190,73 @@
       <c r="D5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="31" t="s">
+      <c r="L5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="Q5" s="32" t="s">
+      <c r="Q5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="T5" s="32" t="s">
+      <c r="T5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="31" t="s">
+      <c r="U5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="V5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="W5" s="32" t="s">
+      <c r="W5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="31" t="s">
+      <c r="X5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="Y5" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="Z5" s="32" t="s">
+      <c r="Z5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="AB5" s="31" t="s">
@@ -8548,8 +9184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B3D923C-DF32-42AB-9854-C26FD0393729}">
   <dimension ref="A1:AB166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -8571,158 +9207,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
+      <c r="A1" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
     </row>
     <row r="2" spans="1:19" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
     </row>
     <row r="3" spans="1:19" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="51" t="b">
+      <c r="D3" s="50" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="47" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="65" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="65" t="s">
+      <c r="E4" s="68"/>
+      <c r="F4" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="65" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="66" t="s">
         <v>233</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="65" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="65" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="M4" s="68"/>
+      <c r="N4" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="65" t="s">
+      <c r="O4" s="68"/>
+      <c r="P4" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="65" t="s">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="66" t="s">
         <v>238</v>
       </c>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="S4" s="67"/>
-    </row>
-    <row r="5" spans="1:19" s="47" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="68"/>
+    </row>
+    <row r="5" spans="1:19" s="46" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="C5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="G5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="H5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="I5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="J5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="O5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="P5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="31" t="s">
         <v>166</v>
       </c>
       <c r="R5" s="29" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="S5" s="31" t="s">
         <v>166</v>
@@ -8733,10 +9369,10 @@
         <v>195</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -8760,16 +9396,16 @@
         <v>201</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>249</v>
-      </c>
       <c r="E7" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -12151,7 +12787,7 @@
       <formula>$D$3=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:S5 A8:S166 A6:A7 C6:S6 C7 F7:S7">
+  <conditionalFormatting sqref="A8:S166 A6:A7 C6:S6 C7 F7:S7 A4:S5">
     <cfRule type="expression" dxfId="16" priority="16">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
@@ -12162,22 +12798,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="13" priority="3">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$D$3&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12217,33 +12853,33 @@
       <c r="A1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="str">
+      <c r="A3" s="41" t="str">
         <f t="array" ref="A3">IF(LEN(A5:A103)&gt;19,"NAME LONG", "NAMES OKAY")</f>
         <v>NAMES OKAY</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>167</v>
       </c>
     </row>
@@ -12883,22 +13519,22 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:A6 A8:A103">
-    <cfRule type="expression" dxfId="14" priority="5">
+    <cfRule type="expression" dxfId="10" priority="5">
       <formula>LEN(A5)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="9" priority="3">
       <formula>A3="NAMES OKAY"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>LEN(A7)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="expression" dxfId="11" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>LEN(B7)&gt;19</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12914,14 +13550,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="121.7109375" style="43" customWidth="1"/>
+    <col min="2" max="2" width="121.7109375" style="42" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="15" customWidth="1"/>
     <col min="4" max="4" width="22.85546875" style="15" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="15" hidden="1" customWidth="1"/>
@@ -12938,36 +13574,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="75" t="str">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="74" t="str">
         <f>IF($D$4="","Cannot be empty, please enter FALSE","")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>175</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -12977,665 +13613,665 @@
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="73"/>
+      <c r="B9" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="44">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="43" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="73"/>
+      <c r="B41" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="73"/>
+      <c r="B42" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="73"/>
+      <c r="B43" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="73"/>
+      <c r="B44" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="44">
         <v>80</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="45">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="44">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="73"/>
+      <c r="B46" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="44">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="73"/>
+      <c r="B47" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="45">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D48" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="73"/>
+      <c r="B49" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" s="44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="73"/>
+      <c r="B52" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52" s="44">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="73"/>
+      <c r="B53" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="73"/>
+      <c r="B54" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="44">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="D55" s="44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="44">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="73"/>
+      <c r="B58" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58" s="44">
         <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="46"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
-      <c r="B23" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="74"/>
-      <c r="B25" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="45">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="74"/>
-      <c r="B26" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="74"/>
-      <c r="B27" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="74"/>
-      <c r="B28" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="74"/>
-      <c r="B29" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="74"/>
-      <c r="B30" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="74"/>
-      <c r="B31" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="74"/>
-      <c r="B33" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="45">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="74"/>
-      <c r="B34" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="74"/>
-      <c r="B35" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="45">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D43" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="45">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="74"/>
-      <c r="B45" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="45">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="74"/>
-      <c r="B46" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="D46" s="45">
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="74"/>
-      <c r="B47" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="74"/>
-      <c r="B49" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="74"/>
-      <c r="B50" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="74"/>
-      <c r="B52" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="45">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="74"/>
-      <c r="B53" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="74"/>
-      <c r="B54" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="45">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="74"/>
-      <c r="B55" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="45">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="74"/>
-      <c r="B56" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="D56" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="74"/>
-      <c r="B58" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="45">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13653,17 +14289,17 @@
     <mergeCell ref="D2:D3"/>
   </mergeCells>
   <conditionalFormatting sqref="A5:D58">
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13695,8 +14331,8 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="54.42578125" style="43" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.42578125" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="15" hidden="1"/>
   </cols>
@@ -13705,33 +14341,33 @@
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="75" t="str">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="74" t="str">
         <f>IF($D$4="","Cannot be empty, please enter FALSE","")</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="74"/>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>189</v>
       </c>
       <c r="D4" s="17" t="s">
@@ -13739,126 +14375,126 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="49">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="43" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="49">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="49">
         <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="43" t="s">
+      <c r="A9" s="73"/>
+      <c r="B9" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="49">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="73"/>
+      <c r="B10" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="44">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="44">
         <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="43" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="44">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="43" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="44">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>0</v>
       </c>
     </row>
@@ -13872,22 +14508,22 @@
     <mergeCell ref="A2:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:D4">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D$4=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$D$4=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:D14">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>$D$4&lt;&gt;FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>AND($B$13,$D$9&gt;=$D$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13916,6 +14552,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C9B3B8AC64AC88418540180D602CE6AB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c03373d3e8f67dac2598d545e73c3e0f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3cada6dc-2705-46ed-bab2-0b2cd6d935ca" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f693bfc3a603cfa0c3f0b58e702f3d19" ns2:_="">
     <xsd:import namespace="3cada6dc-2705-46ed-bab2-0b2cd6d935ca"/>
@@ -14067,15 +14712,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FCC61AA8-C35E-4598-8617-08B80F018AC2}">
   <ds:schemaRefs>
@@ -14093,6 +14729,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A5E1C23-6545-45A2-BF0C-826678B16173}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14108,12 +14752,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B5D7682-109C-47ED-9D9D-D061E76CCAD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>